--- a/output7/【河洛文讀注音-閩拼調符】《深慮論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《深慮論》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5271888-D575-4E11-BE35-EEE12E827529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A063A63E-E4EB-4360-9FB3-63306E1F707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="2550" windowWidth="26550" windowHeight="12930" tabRatio="718" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="2168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7152" uniqueCount="2192">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5660,15 +5660,9 @@
     <t>ziǎ</t>
   </si>
   <si>
-    <t>sióng</t>
-  </si>
-  <si>
     <t>too5</t>
   </si>
   <si>
-    <t>dóo</t>
-  </si>
-  <si>
     <t>gí</t>
   </si>
   <si>
@@ -5678,25 +5672,16 @@
     <t>sǒo</t>
   </si>
   <si>
-    <t>lán</t>
-  </si>
-  <si>
     <t>zzí</t>
   </si>
   <si>
     <t>hut4</t>
   </si>
   <si>
-    <t>hūt</t>
-  </si>
-  <si>
     <t>yík</t>
   </si>
   <si>
     <t>bî</t>
-  </si>
-  <si>
-    <t>wì</t>
   </si>
   <si>
     <t>wí</t>
@@ -6838,14 +6823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kai3</t>
   </si>
   <si>
@@ -7003,9 +6980,6 @@
   </si>
   <si>
     <t>wú</t>
-  </si>
-  <si>
-    <t>wú</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7031,12 +7005,6 @@
     <t>wû</t>
   </si>
   <si>
-    <t>u51</t>
-  </si>
-  <si>
-    <t>(15, 9)</t>
-  </si>
-  <si>
     <t>(21, 4); (15, 9)</t>
   </si>
   <si>
@@ -7085,6 +7053,142 @@
   </si>
   <si>
     <t>zzú</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiān</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziǎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sióng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dóo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gí</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sǒo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lán</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzí</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hūt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yík</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kǒ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wí</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m̂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggí</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzián</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huāt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dìng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luân</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kǐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22049,13 +22153,13 @@
         <v>1598</v>
       </c>
       <c r="B2" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22063,7 +22167,7 @@
         <v>1625</v>
       </c>
       <c r="B3" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
@@ -22083,7 +22187,7 @@
   <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -22128,7 +22232,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22156,7 +22260,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -22184,7 +22288,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -22192,13 +22296,13 @@
         <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -22212,7 +22316,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -22220,7 +22324,7 @@
         <v>1558</v>
       </c>
       <c r="B10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -22234,13 +22338,13 @@
         <v>1559</v>
       </c>
       <c r="B11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -22262,13 +22366,13 @@
         <v>1561</v>
       </c>
       <c r="B13" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -22282,7 +22386,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -22296,7 +22400,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -22332,13 +22436,13 @@
         <v>1564</v>
       </c>
       <c r="B18" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -22352,7 +22456,7 @@
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -22360,7 +22464,7 @@
         <v>1566</v>
       </c>
       <c r="B20" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
@@ -22388,13 +22492,13 @@
         <v>1567</v>
       </c>
       <c r="B22" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -22402,13 +22506,13 @@
         <v>1568</v>
       </c>
       <c r="B23" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -22416,13 +22520,13 @@
         <v>1569</v>
       </c>
       <c r="B24" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -22436,7 +22540,7 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -22444,13 +22548,13 @@
         <v>1571</v>
       </c>
       <c r="B26" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -22458,13 +22562,13 @@
         <v>1572</v>
       </c>
       <c r="B27" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -22472,13 +22576,13 @@
         <v>1573</v>
       </c>
       <c r="B28" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -22486,7 +22590,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
@@ -22500,13 +22604,13 @@
         <v>1574</v>
       </c>
       <c r="B30" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -22514,13 +22618,13 @@
         <v>1575</v>
       </c>
       <c r="B31" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -22528,7 +22632,7 @@
         <v>1576</v>
       </c>
       <c r="B32" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
@@ -22542,13 +22646,13 @@
         <v>1577</v>
       </c>
       <c r="B33" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -22562,7 +22666,7 @@
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -22576,7 +22680,7 @@
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -22590,7 +22694,7 @@
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -22598,13 +22702,13 @@
         <v>1580</v>
       </c>
       <c r="B37" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -22612,13 +22716,13 @@
         <v>1581</v>
       </c>
       <c r="B38" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -22626,7 +22730,7 @@
         <v>1582</v>
       </c>
       <c r="B39" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
@@ -22646,7 +22750,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -22660,7 +22764,7 @@
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -22674,7 +22778,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -22688,7 +22792,7 @@
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -22696,7 +22800,7 @@
         <v>1586</v>
       </c>
       <c r="B44" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
@@ -22710,7 +22814,7 @@
         <v>1587</v>
       </c>
       <c r="B45" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
@@ -22724,13 +22828,13 @@
         <v>1588</v>
       </c>
       <c r="B46" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -22752,13 +22856,13 @@
         <v>1590</v>
       </c>
       <c r="B48" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -22780,13 +22884,13 @@
         <v>1591</v>
       </c>
       <c r="B50" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -22794,13 +22898,13 @@
         <v>1592</v>
       </c>
       <c r="B51" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -22808,7 +22912,7 @@
         <v>1593</v>
       </c>
       <c r="B52" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
@@ -22822,13 +22926,13 @@
         <v>1594</v>
       </c>
       <c r="B53" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -22836,13 +22940,13 @@
         <v>1595</v>
       </c>
       <c r="B54" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -22856,7 +22960,7 @@
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -22864,7 +22968,7 @@
         <v>1596</v>
       </c>
       <c r="B56" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
@@ -22892,13 +22996,13 @@
         <v>1597</v>
       </c>
       <c r="B58" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -22906,7 +23010,7 @@
         <v>1599</v>
       </c>
       <c r="B59" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
@@ -22920,13 +23024,13 @@
         <v>1600</v>
       </c>
       <c r="B60" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -22940,7 +23044,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -22948,13 +23052,13 @@
         <v>1601</v>
       </c>
       <c r="B62" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -22962,7 +23066,7 @@
         <v>1602</v>
       </c>
       <c r="B63" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
@@ -22982,7 +23086,7 @@
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -22996,7 +23100,7 @@
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -23004,13 +23108,13 @@
         <v>1605</v>
       </c>
       <c r="B66" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -23018,13 +23122,13 @@
         <v>1606</v>
       </c>
       <c r="B67" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -23038,7 +23142,7 @@
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -23052,7 +23156,7 @@
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -23060,7 +23164,7 @@
         <v>1608</v>
       </c>
       <c r="B70" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
@@ -23080,7 +23184,7 @@
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -23102,7 +23206,7 @@
         <v>1609</v>
       </c>
       <c r="B73" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
@@ -23116,7 +23220,7 @@
         <v>1204</v>
       </c>
       <c r="B74" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
@@ -23136,7 +23240,7 @@
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -23158,13 +23262,13 @@
         <v>1611</v>
       </c>
       <c r="B77" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -23172,7 +23276,7 @@
         <v>1612</v>
       </c>
       <c r="B78" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
@@ -23186,13 +23290,13 @@
         <v>1613</v>
       </c>
       <c r="B79" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -23200,13 +23304,13 @@
         <v>1614</v>
       </c>
       <c r="B80" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -23214,7 +23318,7 @@
         <v>1616</v>
       </c>
       <c r="B81" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
@@ -23234,7 +23338,7 @@
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -23242,7 +23346,7 @@
         <v>1617</v>
       </c>
       <c r="B83" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
@@ -23256,7 +23360,7 @@
         <v>1618</v>
       </c>
       <c r="B84" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
@@ -23284,13 +23388,13 @@
         <v>1620</v>
       </c>
       <c r="B86" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -23298,7 +23402,7 @@
         <v>1621</v>
       </c>
       <c r="B87" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
@@ -23318,7 +23422,7 @@
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -23326,7 +23430,7 @@
         <v>1622</v>
       </c>
       <c r="B89" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
@@ -23360,7 +23464,7 @@
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -23374,7 +23478,7 @@
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -23382,7 +23486,7 @@
         <v>1626</v>
       </c>
       <c r="B93" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
@@ -23402,7 +23506,7 @@
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -23410,13 +23514,13 @@
         <v>1627</v>
       </c>
       <c r="B95" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -23430,7 +23534,7 @@
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -23444,7 +23548,7 @@
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -23472,7 +23576,7 @@
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -23480,13 +23584,13 @@
         <v>1631</v>
       </c>
       <c r="B100" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="C100" t="s">
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -23494,13 +23598,13 @@
         <v>1632</v>
       </c>
       <c r="B101" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -23508,13 +23612,13 @@
         <v>1633</v>
       </c>
       <c r="B102" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -23528,7 +23632,7 @@
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -23536,13 +23640,13 @@
         <v>1635</v>
       </c>
       <c r="B104" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -23550,13 +23654,13 @@
         <v>1636</v>
       </c>
       <c r="B105" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -23570,7 +23674,7 @@
         <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -23584,7 +23688,7 @@
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -23592,13 +23696,13 @@
         <v>1638</v>
       </c>
       <c r="B108" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -23612,7 +23716,7 @@
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -23620,13 +23724,13 @@
         <v>1640</v>
       </c>
       <c r="B110" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -23634,13 +23738,13 @@
         <v>1641</v>
       </c>
       <c r="B111" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -23648,7 +23752,7 @@
         <v>1642</v>
       </c>
       <c r="B112" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
@@ -23662,7 +23766,7 @@
         <v>1643</v>
       </c>
       <c r="B113" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
@@ -23676,7 +23780,7 @@
         <v>1644</v>
       </c>
       <c r="B114" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
@@ -23690,7 +23794,7 @@
         <v>1645</v>
       </c>
       <c r="B115" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
@@ -23704,7 +23808,7 @@
         <v>1646</v>
       </c>
       <c r="B116" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
@@ -23724,7 +23828,7 @@
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -23752,7 +23856,7 @@
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -23760,13 +23864,13 @@
         <v>1648</v>
       </c>
       <c r="B120" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -23774,13 +23878,13 @@
         <v>1649</v>
       </c>
       <c r="B121" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -23794,7 +23898,7 @@
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -23816,7 +23920,7 @@
         <v>1652</v>
       </c>
       <c r="B124" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
@@ -23830,13 +23934,13 @@
         <v>1653</v>
       </c>
       <c r="B125" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -23844,13 +23948,13 @@
         <v>1654</v>
       </c>
       <c r="B126" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -23858,13 +23962,13 @@
         <v>1655</v>
       </c>
       <c r="B127" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -23872,13 +23976,13 @@
         <v>1656</v>
       </c>
       <c r="B128" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -23900,13 +24004,13 @@
         <v>1658</v>
       </c>
       <c r="B130" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -23920,7 +24024,7 @@
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -23934,7 +24038,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -23942,13 +24046,13 @@
         <v>1660</v>
       </c>
       <c r="B133" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -23962,7 +24066,7 @@
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -23976,7 +24080,7 @@
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -23990,7 +24094,7 @@
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -24004,7 +24108,7 @@
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -24018,7 +24122,7 @@
         <v>499</v>
       </c>
       <c r="D138" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -24026,13 +24130,13 @@
         <v>1663</v>
       </c>
       <c r="B139" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -24040,13 +24144,13 @@
         <v>1664</v>
       </c>
       <c r="B140" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -24060,7 +24164,7 @@
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -24068,13 +24172,13 @@
         <v>1665</v>
       </c>
       <c r="B142" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -24088,7 +24192,7 @@
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -24096,13 +24200,13 @@
         <v>1667</v>
       </c>
       <c r="B144" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -24110,13 +24214,13 @@
         <v>1668</v>
       </c>
       <c r="B145" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -24144,7 +24248,7 @@
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -24158,7 +24262,7 @@
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -24172,7 +24276,7 @@
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -24180,13 +24284,13 @@
         <v>1671</v>
       </c>
       <c r="B150" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -24200,7 +24304,7 @@
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -24214,7 +24318,7 @@
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -24228,7 +24332,7 @@
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -24242,7 +24346,7 @@
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -24250,13 +24354,13 @@
         <v>1676</v>
       </c>
       <c r="B155" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24264,7 +24368,7 @@
         <v>1677</v>
       </c>
       <c r="B156" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
@@ -24284,7 +24388,7 @@
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -24292,7 +24396,7 @@
         <v>1679</v>
       </c>
       <c r="B158" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
@@ -24326,7 +24430,7 @@
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -24334,13 +24438,13 @@
         <v>1682</v>
       </c>
       <c r="B161" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -24348,13 +24452,13 @@
         <v>1683</v>
       </c>
       <c r="B162" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -24362,13 +24466,13 @@
         <v>1684</v>
       </c>
       <c r="B163" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -24376,13 +24480,13 @@
         <v>1685</v>
       </c>
       <c r="B164" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -24396,7 +24500,7 @@
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -24404,13 +24508,13 @@
         <v>1687</v>
       </c>
       <c r="B166" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -24424,7 +24528,7 @@
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24438,7 +24542,7 @@
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -24466,7 +24570,7 @@
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -24474,13 +24578,13 @@
         <v>1691</v>
       </c>
       <c r="B171" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="C171" t="s">
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -24494,7 +24598,7 @@
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -24508,7 +24612,7 @@
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -24522,7 +24626,7 @@
         <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -24530,13 +24634,13 @@
         <v>1694</v>
       </c>
       <c r="B175" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -24544,13 +24648,13 @@
         <v>1695</v>
       </c>
       <c r="B176" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -24564,7 +24668,7 @@
         <v>499</v>
       </c>
       <c r="D177" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -24572,13 +24676,13 @@
         <v>1697</v>
       </c>
       <c r="B178" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -24586,13 +24690,13 @@
         <v>1698</v>
       </c>
       <c r="B179" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -24606,7 +24710,7 @@
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -24614,13 +24718,13 @@
         <v>1598</v>
       </c>
       <c r="B181" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="C181" t="s">
         <v>499</v>
       </c>
       <c r="D181" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -24628,7 +24732,7 @@
         <v>1625</v>
       </c>
       <c r="B182" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="C182" t="s">
         <v>499</v>
@@ -24699,7 +24803,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="Q3" t="s">
         <v>499</v>
@@ -24733,7 +24837,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="Q5" t="s">
         <v>499</v>
@@ -24767,7 +24871,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="Q7" t="s">
         <v>499</v>
@@ -24781,13 +24885,13 @@
         <v>1428</v>
       </c>
       <c r="C8" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="D8" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="Q8" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -24801,7 +24905,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="Q9" t="s">
         <v>499</v>
@@ -24812,7 +24916,7 @@
         <v>1558</v>
       </c>
       <c r="B10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
@@ -24829,13 +24933,13 @@
         <v>1559</v>
       </c>
       <c r="B11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="Q11" t="s">
         <v>499</v>
@@ -24863,13 +24967,13 @@
         <v>1561</v>
       </c>
       <c r="B13" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="Q13" t="s">
         <v>499</v>
@@ -24886,7 +24990,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="Q14" t="s">
         <v>499</v>
@@ -24903,7 +25007,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="Q15" t="s">
         <v>499</v>
@@ -24948,13 +25052,13 @@
         <v>1564</v>
       </c>
       <c r="B18" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="Q18" t="s">
         <v>499</v>
@@ -24971,7 +25075,7 @@
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="Q19" t="s">
         <v>499</v>
@@ -24982,7 +25086,7 @@
         <v>1566</v>
       </c>
       <c r="B20" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
@@ -25002,13 +25106,13 @@
         <v>1210</v>
       </c>
       <c r="C21" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="D21" t="s">
         <v>961</v>
       </c>
       <c r="Q21" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -25016,13 +25120,13 @@
         <v>1567</v>
       </c>
       <c r="B22" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="Q22" t="s">
         <v>499</v>
@@ -25033,13 +25137,13 @@
         <v>1568</v>
       </c>
       <c r="B23" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="Q23" t="s">
         <v>499</v>
@@ -25050,13 +25154,13 @@
         <v>1569</v>
       </c>
       <c r="B24" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="Q24" t="s">
         <v>499</v>
@@ -25073,7 +25177,7 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="Q25" t="s">
         <v>499</v>
@@ -25084,13 +25188,13 @@
         <v>1571</v>
       </c>
       <c r="B26" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="Q26" t="s">
         <v>499</v>
@@ -25101,13 +25205,13 @@
         <v>1572</v>
       </c>
       <c r="B27" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="Q27" t="s">
         <v>499</v>
@@ -25118,13 +25222,13 @@
         <v>1573</v>
       </c>
       <c r="B28" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="Q28" t="s">
         <v>499</v>
@@ -25138,13 +25242,13 @@
         <v>1434</v>
       </c>
       <c r="C29" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="D29" t="s">
         <v>1277</v>
       </c>
       <c r="Q29" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -25152,16 +25256,16 @@
         <v>1574</v>
       </c>
       <c r="B30" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="C30" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="D30" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="Q30" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -25169,13 +25273,13 @@
         <v>1575</v>
       </c>
       <c r="B31" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="Q31" t="s">
         <v>499</v>
@@ -25186,7 +25290,7 @@
         <v>1576</v>
       </c>
       <c r="B32" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
@@ -25203,13 +25307,13 @@
         <v>1577</v>
       </c>
       <c r="B33" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="Q33" t="s">
         <v>499</v>
@@ -25226,7 +25330,7 @@
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="Q34" t="s">
         <v>499</v>
@@ -25243,7 +25347,7 @@
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="Q35" t="s">
         <v>499</v>
@@ -25257,13 +25361,13 @@
         <v>1313</v>
       </c>
       <c r="C36" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="D36" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="Q36" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -25271,13 +25375,13 @@
         <v>1580</v>
       </c>
       <c r="B37" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="Q37" t="s">
         <v>499</v>
@@ -25288,13 +25392,13 @@
         <v>1581</v>
       </c>
       <c r="B38" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="Q38" t="s">
         <v>499</v>
@@ -25305,7 +25409,7 @@
         <v>1582</v>
       </c>
       <c r="B39" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
@@ -25328,7 +25432,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="Q40" t="s">
         <v>499</v>
@@ -25345,7 +25449,7 @@
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="Q41" t="s">
         <v>499</v>
@@ -25362,7 +25466,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="Q42" t="s">
         <v>499</v>
@@ -25379,7 +25483,7 @@
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="Q43" t="s">
         <v>499</v>
@@ -25390,7 +25494,7 @@
         <v>1586</v>
       </c>
       <c r="B44" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
@@ -25407,7 +25511,7 @@
         <v>1587</v>
       </c>
       <c r="B45" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
@@ -25424,13 +25528,13 @@
         <v>1588</v>
       </c>
       <c r="B46" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="Q46" t="s">
         <v>499</v>
@@ -25458,13 +25562,13 @@
         <v>1590</v>
       </c>
       <c r="B48" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="Q48" t="s">
         <v>499</v>
@@ -25492,13 +25596,13 @@
         <v>1591</v>
       </c>
       <c r="B50" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="Q50" t="s">
         <v>499</v>
@@ -25509,13 +25613,13 @@
         <v>1592</v>
       </c>
       <c r="B51" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="Q51" t="s">
         <v>499</v>
@@ -25526,7 +25630,7 @@
         <v>1593</v>
       </c>
       <c r="B52" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
@@ -25543,13 +25647,13 @@
         <v>1594</v>
       </c>
       <c r="B53" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="Q53" t="s">
         <v>499</v>
@@ -25560,16 +25664,16 @@
         <v>1595</v>
       </c>
       <c r="B54" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="C54" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="D54" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="Q54" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="21">
@@ -25580,13 +25684,13 @@
         <v>1421</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="D55" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="Q55" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -25594,7 +25698,7 @@
         <v>1596</v>
       </c>
       <c r="B56" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
@@ -25628,13 +25732,13 @@
         <v>1597</v>
       </c>
       <c r="B58" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="Q58" t="s">
         <v>499</v>
@@ -25645,7 +25749,7 @@
         <v>1599</v>
       </c>
       <c r="B59" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
@@ -25662,13 +25766,13 @@
         <v>1600</v>
       </c>
       <c r="B60" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="Q60" t="s">
         <v>499</v>
@@ -25685,7 +25789,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="Q61" t="s">
         <v>499</v>
@@ -25696,13 +25800,13 @@
         <v>1601</v>
       </c>
       <c r="B62" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="Q62" t="s">
         <v>499</v>
@@ -25713,7 +25817,7 @@
         <v>1602</v>
       </c>
       <c r="B63" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
@@ -25736,7 +25840,7 @@
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="Q64" t="s">
         <v>499</v>
@@ -25753,7 +25857,7 @@
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="Q65" t="s">
         <v>499</v>
@@ -25764,13 +25868,13 @@
         <v>1605</v>
       </c>
       <c r="B66" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="Q66" t="s">
         <v>499</v>
@@ -25781,13 +25885,13 @@
         <v>1606</v>
       </c>
       <c r="B67" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="Q67" t="s">
         <v>499</v>
@@ -25804,7 +25908,7 @@
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="Q68" t="s">
         <v>499</v>
@@ -25821,7 +25925,7 @@
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="Q69" t="s">
         <v>499</v>
@@ -25832,7 +25936,7 @@
         <v>1608</v>
       </c>
       <c r="B70" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
@@ -25852,13 +25956,13 @@
         <v>1177</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="D71" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="Q71" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -25883,7 +25987,7 @@
         <v>1609</v>
       </c>
       <c r="B73" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
@@ -25900,7 +26004,7 @@
         <v>1204</v>
       </c>
       <c r="B74" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
@@ -25923,7 +26027,7 @@
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="Q75" t="s">
         <v>499</v>
@@ -25951,13 +26055,13 @@
         <v>1611</v>
       </c>
       <c r="B77" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="Q77" t="s">
         <v>499</v>
@@ -25968,7 +26072,7 @@
         <v>1612</v>
       </c>
       <c r="B78" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
@@ -25985,13 +26089,13 @@
         <v>1613</v>
       </c>
       <c r="B79" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="Q79" t="s">
         <v>499</v>
@@ -26002,13 +26106,13 @@
         <v>1614</v>
       </c>
       <c r="B80" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="Q80" t="s">
         <v>499</v>
@@ -26019,7 +26123,7 @@
         <v>1616</v>
       </c>
       <c r="B81" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
@@ -26039,13 +26143,13 @@
         <v>1433</v>
       </c>
       <c r="C82" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="D82" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="Q82" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -26053,16 +26157,16 @@
         <v>1617</v>
       </c>
       <c r="B83" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="C83" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="D83" t="s">
         <v>1034</v>
       </c>
       <c r="Q83" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -26070,16 +26174,16 @@
         <v>1618</v>
       </c>
       <c r="B84" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="C84" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="D84" t="s">
         <v>1035</v>
       </c>
       <c r="Q84" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -26104,13 +26208,13 @@
         <v>1620</v>
       </c>
       <c r="B86" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="Q86" t="s">
         <v>499</v>
@@ -26121,7 +26225,7 @@
         <v>1621</v>
       </c>
       <c r="B87" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
@@ -26144,7 +26248,7 @@
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="Q88" t="s">
         <v>499</v>
@@ -26155,7 +26259,7 @@
         <v>1622</v>
       </c>
       <c r="B89" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
@@ -26195,7 +26299,7 @@
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="Q91" t="s">
         <v>499</v>
@@ -26212,7 +26316,7 @@
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="Q92" t="s">
         <v>499</v>
@@ -26223,7 +26327,7 @@
         <v>1626</v>
       </c>
       <c r="B93" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
@@ -26246,7 +26350,7 @@
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="Q94" t="s">
         <v>499</v>
@@ -26257,13 +26361,13 @@
         <v>1627</v>
       </c>
       <c r="B95" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="Q95" t="s">
         <v>499</v>
@@ -26280,7 +26384,7 @@
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="Q96" t="s">
         <v>499</v>
@@ -26297,7 +26401,7 @@
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="Q97" t="s">
         <v>499</v>
@@ -26331,7 +26435,7 @@
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="Q99" t="s">
         <v>499</v>
@@ -26342,16 +26446,16 @@
         <v>1631</v>
       </c>
       <c r="B100" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="C100" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="D100" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="Q100" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -26359,13 +26463,13 @@
         <v>1632</v>
       </c>
       <c r="B101" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="Q101" t="s">
         <v>499</v>
@@ -26376,13 +26480,13 @@
         <v>1633</v>
       </c>
       <c r="B102" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="Q102" t="s">
         <v>499</v>
@@ -26399,7 +26503,7 @@
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="Q103" t="s">
         <v>499</v>
@@ -26410,13 +26514,13 @@
         <v>1635</v>
       </c>
       <c r="B104" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="Q104" t="s">
         <v>499</v>
@@ -26427,13 +26531,13 @@
         <v>1636</v>
       </c>
       <c r="B105" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="Q105" t="s">
         <v>499</v>
@@ -26444,16 +26548,16 @@
         <v>1637</v>
       </c>
       <c r="B106" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="C106" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="D106" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="Q106" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -26467,7 +26571,7 @@
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="Q107" t="s">
         <v>499</v>
@@ -26478,13 +26582,13 @@
         <v>1638</v>
       </c>
       <c r="B108" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="Q108" t="s">
         <v>499</v>
@@ -26501,7 +26605,7 @@
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q109" t="s">
         <v>499</v>
@@ -26512,13 +26616,13 @@
         <v>1640</v>
       </c>
       <c r="B110" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="Q110" t="s">
         <v>499</v>
@@ -26529,13 +26633,13 @@
         <v>1641</v>
       </c>
       <c r="B111" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q111" t="s">
         <v>499</v>
@@ -26546,16 +26650,16 @@
         <v>1642</v>
       </c>
       <c r="B112" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="C112" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="D112" t="s">
         <v>1079</v>
       </c>
       <c r="Q112" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -26563,7 +26667,7 @@
         <v>1643</v>
       </c>
       <c r="B113" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
@@ -26580,7 +26684,7 @@
         <v>1644</v>
       </c>
       <c r="B114" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
@@ -26597,7 +26701,7 @@
         <v>1645</v>
       </c>
       <c r="B115" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
@@ -26614,7 +26718,7 @@
         <v>1646</v>
       </c>
       <c r="B116" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
@@ -26637,7 +26741,7 @@
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q117" t="s">
         <v>499</v>
@@ -26671,7 +26775,7 @@
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="Q119" t="s">
         <v>499</v>
@@ -26682,13 +26786,13 @@
         <v>1648</v>
       </c>
       <c r="B120" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q120" t="s">
         <v>499</v>
@@ -26699,13 +26803,13 @@
         <v>1649</v>
       </c>
       <c r="B121" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="Q121" t="s">
         <v>499</v>
@@ -26722,7 +26826,7 @@
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="Q122" t="s">
         <v>499</v>
@@ -26750,7 +26854,7 @@
         <v>1652</v>
       </c>
       <c r="B124" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
@@ -26767,13 +26871,13 @@
         <v>1653</v>
       </c>
       <c r="B125" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="Q125" t="s">
         <v>499</v>
@@ -26784,13 +26888,13 @@
         <v>1654</v>
       </c>
       <c r="B126" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="Q126" t="s">
         <v>499</v>
@@ -26801,13 +26905,13 @@
         <v>1655</v>
       </c>
       <c r="B127" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="Q127" t="s">
         <v>499</v>
@@ -26818,13 +26922,13 @@
         <v>1656</v>
       </c>
       <c r="B128" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="Q128" t="s">
         <v>499</v>
@@ -26852,13 +26956,13 @@
         <v>1658</v>
       </c>
       <c r="B130" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="Q130" t="s">
         <v>499</v>
@@ -26875,7 +26979,7 @@
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="Q131" t="s">
         <v>499</v>
@@ -26892,7 +26996,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="Q132" t="s">
         <v>499</v>
@@ -26903,16 +27007,16 @@
         <v>1660</v>
       </c>
       <c r="B133" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="C133" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D133" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="Q133" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -26926,7 +27030,7 @@
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="Q134" t="s">
         <v>499</v>
@@ -26943,7 +27047,7 @@
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="Q135" t="s">
         <v>499</v>
@@ -26960,7 +27064,7 @@
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="Q136" t="s">
         <v>499</v>
@@ -26977,7 +27081,7 @@
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="Q137" t="s">
         <v>499</v>
@@ -26994,7 +27098,7 @@
         <v>499</v>
       </c>
       <c r="D138" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="Q138" t="s">
         <v>499</v>
@@ -27005,13 +27109,13 @@
         <v>1663</v>
       </c>
       <c r="B139" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="Q139" t="s">
         <v>499</v>
@@ -27022,13 +27126,13 @@
         <v>1664</v>
       </c>
       <c r="B140" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="Q140" t="s">
         <v>499</v>
@@ -27045,7 +27149,7 @@
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="Q141" t="s">
         <v>499</v>
@@ -27056,13 +27160,13 @@
         <v>1665</v>
       </c>
       <c r="B142" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="Q142" t="s">
         <v>499</v>
@@ -27076,13 +27180,13 @@
         <v>351</v>
       </c>
       <c r="C143" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="D143" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="Q143" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -27090,13 +27194,13 @@
         <v>1667</v>
       </c>
       <c r="B144" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="Q144" t="s">
         <v>499</v>
@@ -27107,13 +27211,13 @@
         <v>1668</v>
       </c>
       <c r="B145" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="Q145" t="s">
         <v>499</v>
@@ -27147,7 +27251,7 @@
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="Q147" t="s">
         <v>499</v>
@@ -27164,7 +27268,7 @@
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="Q148" t="s">
         <v>499</v>
@@ -27181,7 +27285,7 @@
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="Q149" t="s">
         <v>499</v>
@@ -27192,13 +27296,13 @@
         <v>1671</v>
       </c>
       <c r="B150" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="Q150" t="s">
         <v>499</v>
@@ -27215,7 +27319,7 @@
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="Q151" t="s">
         <v>499</v>
@@ -27232,7 +27336,7 @@
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="Q152" t="s">
         <v>499</v>
@@ -27249,7 +27353,7 @@
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="Q153" t="s">
         <v>499</v>
@@ -27266,7 +27370,7 @@
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="Q154" t="s">
         <v>499</v>
@@ -27277,13 +27381,13 @@
         <v>1676</v>
       </c>
       <c r="B155" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="Q155" t="s">
         <v>499</v>
@@ -27294,7 +27398,7 @@
         <v>1677</v>
       </c>
       <c r="B156" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
@@ -27317,7 +27421,7 @@
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="Q157" t="s">
         <v>499</v>
@@ -27328,7 +27432,7 @@
         <v>1679</v>
       </c>
       <c r="B158" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
@@ -27368,7 +27472,7 @@
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="Q160" t="s">
         <v>499</v>
@@ -27379,13 +27483,13 @@
         <v>1682</v>
       </c>
       <c r="B161" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="Q161" t="s">
         <v>499</v>
@@ -27396,13 +27500,13 @@
         <v>1683</v>
       </c>
       <c r="B162" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="Q162" t="s">
         <v>499</v>
@@ -27413,13 +27517,13 @@
         <v>1684</v>
       </c>
       <c r="B163" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="Q163" t="s">
         <v>499</v>
@@ -27430,13 +27534,13 @@
         <v>1685</v>
       </c>
       <c r="B164" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="Q164" t="s">
         <v>499</v>
@@ -27447,16 +27551,16 @@
         <v>1686</v>
       </c>
       <c r="B165" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="C165" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="D165" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="Q165" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -27464,13 +27568,13 @@
         <v>1687</v>
       </c>
       <c r="B166" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="Q166" t="s">
         <v>499</v>
@@ -27487,7 +27591,7 @@
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="Q167" t="s">
         <v>499</v>
@@ -27504,7 +27608,7 @@
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="Q168" t="s">
         <v>499</v>
@@ -27538,7 +27642,7 @@
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="Q170" t="s">
         <v>499</v>
@@ -27549,16 +27653,16 @@
         <v>1691</v>
       </c>
       <c r="B171" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="C171" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="D171" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="Q171" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -27572,7 +27676,7 @@
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="Q172" t="s">
         <v>499</v>
@@ -27589,7 +27693,7 @@
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="Q173" t="s">
         <v>499</v>
@@ -27600,16 +27704,16 @@
         <v>1693</v>
       </c>
       <c r="B174" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="C174" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="D174" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="Q174" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -27617,13 +27721,13 @@
         <v>1694</v>
       </c>
       <c r="B175" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="Q175" t="s">
         <v>499</v>
@@ -27634,16 +27738,16 @@
         <v>1695</v>
       </c>
       <c r="B176" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="C176" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="D176" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="Q176" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -27651,16 +27755,16 @@
         <v>1696</v>
       </c>
       <c r="B177" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="C177" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="D177" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="Q177" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -27668,13 +27772,13 @@
         <v>1697</v>
       </c>
       <c r="B178" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="Q178" t="s">
         <v>499</v>
@@ -27685,13 +27789,13 @@
         <v>1698</v>
       </c>
       <c r="B179" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="Q179" t="s">
         <v>499</v>
@@ -27708,7 +27812,7 @@
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="Q180" t="s">
         <v>499</v>
@@ -27722,10 +27826,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438FBF56-2395-4FD2-8BF8-AB5BAA65F495}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27755,21 +27859,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2154</v>
+        <v>2145</v>
       </c>
     </row>
   </sheetData>
@@ -27783,8 +27873,8 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -27913,8 +28003,8 @@
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
       <c r="P3" s="74"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
       <c r="T3" s="16"/>
       <c r="V3" s="68" t="s">
         <v>1700</v>
@@ -27924,13 +28014,13 @@
       <c r="B4" s="17"/>
       <c r="D4" s="75"/>
       <c r="E4" s="75" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
@@ -27943,14 +28033,14 @@
         <v>708</v>
       </c>
       <c r="N4" s="75" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="O4" s="75" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="P4" s="75"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
       <c r="S4" s="19"/>
       <c r="V4" s="69"/>
     </row>
@@ -27999,8 +28089,8 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
       <c r="S5" s="21"/>
       <c r="V5" s="69"/>
     </row>
@@ -28009,33 +28099,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="75"/>
       <c r="E6" s="75" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="75"/>
       <c r="J6" s="75"/>
       <c r="K6" s="75" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="L6" s="75"/>
       <c r="M6" s="75" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="O6" s="75" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="P6" s="75"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
       <c r="S6" s="25"/>
       <c r="V6" s="69"/>
     </row>
@@ -28063,45 +28153,45 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="75" t="s">
-        <v>1703</v>
+        <v>2148</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>2100</v>
+        <v>2159</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="75" t="s">
-        <v>465</v>
+        <v>872</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>1711</v>
+        <v>2163</v>
       </c>
       <c r="K8" s="75" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="L8" s="75" t="s">
-        <v>1714</v>
+        <v>2166</v>
       </c>
       <c r="M8" s="75" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="75" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="P8" s="75" t="s">
-        <v>1718</v>
+        <v>2170</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="R8" s="75" t="s">
-        <v>1714</v>
+        <v>2166</v>
       </c>
       <c r="S8" s="78"/>
       <c r="V8" s="69"/>
@@ -28163,45 +28253,45 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="76" t="s">
-        <v>1704</v>
+        <v>2149</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>1708</v>
+        <v>2158</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>2101</v>
+        <v>2160</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>1709</v>
+        <v>2161</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="76" t="s">
-        <v>1710</v>
+        <v>2162</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>1712</v>
+        <v>2164</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>1713</v>
+        <v>2165</v>
       </c>
       <c r="L10" s="76" t="s">
-        <v>1715</v>
+        <v>2167</v>
       </c>
       <c r="M10" s="76" t="s">
-        <v>1716</v>
+        <v>2168</v>
       </c>
       <c r="N10" s="76"/>
       <c r="O10" s="76" t="s">
-        <v>1717</v>
+        <v>2169</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>1719</v>
+        <v>2171</v>
       </c>
       <c r="Q10" s="76" t="s">
-        <v>1713</v>
+        <v>2165</v>
       </c>
       <c r="R10" s="76" t="s">
-        <v>1715</v>
+        <v>2167</v>
       </c>
       <c r="S10" s="79"/>
       <c r="V10" s="69"/>
@@ -28230,42 +28320,42 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="75" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="E12" s="75"/>
       <c r="F12" s="75" t="s">
-        <v>367</v>
+        <v>663</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>1714</v>
+        <v>2166</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>1544</v>
+        <v>2174</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>417</v>
+        <v>768</v>
       </c>
       <c r="K12" s="75"/>
       <c r="L12" s="75" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="M12" s="75" t="s">
-        <v>52</v>
+        <v>880</v>
       </c>
       <c r="N12" s="75" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="O12" s="75" t="s">
-        <v>1714</v>
+        <v>2166</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>1209</v>
+        <v>2178</v>
       </c>
       <c r="Q12" s="75" t="s">
-        <v>1725</v>
+        <v>2180</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="78"/>
@@ -28327,42 +28417,42 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="76" t="s">
-        <v>1720</v>
+        <v>2172</v>
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="76" t="s">
-        <v>1721</v>
+        <v>2173</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>1713</v>
+        <v>2165</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>1715</v>
+        <v>2167</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>1545</v>
+        <v>2175</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>1722</v>
+        <v>2176</v>
       </c>
       <c r="K14" s="76"/>
       <c r="L14" s="76" t="s">
-        <v>1717</v>
+        <v>2169</v>
       </c>
       <c r="M14" s="76" t="s">
-        <v>1723</v>
+        <v>2177</v>
       </c>
       <c r="N14" s="76" t="s">
-        <v>1713</v>
+        <v>2165</v>
       </c>
       <c r="O14" s="76" t="s">
-        <v>1715</v>
+        <v>2167</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>1724</v>
+        <v>2179</v>
       </c>
       <c r="Q14" s="76" t="s">
-        <v>1726</v>
+        <v>2181</v>
       </c>
       <c r="R14" s="76"/>
       <c r="S14" s="79"/>
@@ -28394,47 +28484,47 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="75" t="s">
-        <v>368</v>
+        <v>665</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="F16" s="75" t="s">
-        <v>57</v>
+        <v>840</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>465</v>
+        <v>872</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>1728</v>
+        <v>2183</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>1714</v>
+        <v>2166</v>
       </c>
       <c r="K16" s="75" t="s">
-        <v>1718</v>
+        <v>2170</v>
       </c>
       <c r="L16" s="75" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>2102</v>
+        <v>2186</v>
       </c>
       <c r="N16" s="75"/>
       <c r="O16" s="75" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>1732</v>
+        <v>2188</v>
       </c>
       <c r="Q16" s="75" t="s">
-        <v>465</v>
+        <v>872</v>
       </c>
       <c r="R16" s="75" t="s">
-        <v>1734</v>
+        <v>2190</v>
       </c>
       <c r="S16" s="78"/>
       <c r="V16" s="69"/>
@@ -28495,47 +28585,47 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="76" t="s">
-        <v>1507</v>
+        <v>2182</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>1717</v>
+        <v>2169</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>1727</v>
+        <v>2107</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>1710</v>
+        <v>2162</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>1729</v>
+        <v>2184</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>1715</v>
+        <v>2167</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>1719</v>
+        <v>2171</v>
       </c>
       <c r="L18" s="76" t="s">
-        <v>1731</v>
+        <v>2185</v>
       </c>
       <c r="M18" s="76" t="s">
-        <v>2103</v>
+        <v>2187</v>
       </c>
       <c r="N18" s="76"/>
       <c r="O18" s="76" t="s">
-        <v>1717</v>
+        <v>2169</v>
       </c>
       <c r="P18" s="76" t="s">
-        <v>1733</v>
+        <v>2189</v>
       </c>
       <c r="Q18" s="76" t="s">
-        <v>1710</v>
+        <v>2162</v>
       </c>
       <c r="R18" s="76" t="s">
-        <v>1735</v>
+        <v>2191</v>
       </c>
       <c r="S18" s="79"/>
       <c r="V18" s="69"/>
@@ -28544,7 +28634,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
       <c r="D19" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
@@ -28566,16 +28656,16 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="75" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>1209</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="H20" s="75" t="s">
         <v>338</v>
@@ -28585,7 +28675,7 @@
       </c>
       <c r="J20" s="75"/>
       <c r="K20" s="75" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="L20" s="75" t="s">
         <v>45</v>
@@ -28597,13 +28687,13 @@
         <v>338</v>
       </c>
       <c r="O20" s="75" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="P20" s="75" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="Q20" s="75" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="R20" s="75"/>
       <c r="S20" s="78"/>
@@ -28665,44 +28755,44 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="76" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="G22" s="76" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H22" s="76" t="s">
         <v>1726</v>
       </c>
-      <c r="H22" s="76" t="s">
-        <v>1731</v>
-      </c>
       <c r="I22" s="76" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="76" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="L22" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="M22" s="76" t="s">
         <v>1704</v>
       </c>
       <c r="N22" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="Q22" s="76" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="79"/>
@@ -28732,7 +28822,7 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="75" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="E24" s="75" t="s">
         <v>1703</v>
@@ -28741,13 +28831,13 @@
         <v>338</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H24" s="75" t="s">
         <v>48</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="J24" s="75" t="s">
         <v>422</v>
@@ -28763,7 +28853,7 @@
         <v>338</v>
       </c>
       <c r="O24" s="75" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="P24" s="75" t="s">
         <v>368</v>
@@ -28831,45 +28921,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="76" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="E26" s="76" t="s">
         <v>1704</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="I26" s="76" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="J26" s="76" t="s">
         <v>1709</v>
       </c>
       <c r="K26" s="76"/>
       <c r="L26" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="M26" s="76" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O26" s="76" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="P26" s="76" t="s">
         <v>1507</v>
       </c>
       <c r="Q26" s="76"/>
       <c r="R26" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="S26" s="79"/>
       <c r="V26" s="69"/>
@@ -28879,7 +28969,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
@@ -28904,10 +28994,10 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="75" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="F28" s="75" t="s">
         <v>1512</v>
@@ -28919,13 +29009,13 @@
         <v>338</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J28" s="75" t="s">
         <v>1209</v>
       </c>
       <c r="K28" s="75" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="L28" s="75" t="s">
         <v>422</v>
@@ -28935,7 +29025,7 @@
         <v>428</v>
       </c>
       <c r="O28" s="75" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="P28" s="75" t="s">
         <v>1173</v>
@@ -29011,28 +29101,28 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="76" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="L30" s="76" t="s">
         <v>1709</v>
@@ -29042,10 +29132,10 @@
         <v>1708</v>
       </c>
       <c r="O30" s="76" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="P30" s="76" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="Q30" s="76"/>
       <c r="R30" s="76"/>
@@ -29087,20 +29177,20 @@
         <v>1550</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>338</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="H32" s="75"/>
       <c r="I32" s="75" t="s">
         <v>421</v>
       </c>
       <c r="J32" s="75" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="K32" s="75" t="s">
         <v>1396</v>
@@ -29119,7 +29209,7 @@
         <v>428</v>
       </c>
       <c r="Q32" s="75" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="R32" s="75"/>
       <c r="S32" s="78"/>
@@ -29188,23 +29278,23 @@
         <v>1551</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="K34" s="76" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="L34" s="76" t="s">
         <v>1520</v>
@@ -29220,7 +29310,7 @@
         <v>1708</v>
       </c>
       <c r="Q34" s="76" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="R34" s="76"/>
       <c r="S34" s="79"/>
@@ -29265,7 +29355,7 @@
         <v>52</v>
       </c>
       <c r="I36" s="75" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="J36" s="75" t="s">
         <v>338</v>
@@ -29290,7 +29380,7 @@
         <v>338</v>
       </c>
       <c r="R36" s="75" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="S36" s="78"/>
       <c r="V36" s="69"/>
@@ -29351,10 +29441,10 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F38" s="76" t="s">
         <v>1543</v>
@@ -29363,23 +29453,23 @@
         <v>1505</v>
       </c>
       <c r="H38" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="I38" s="76" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="J38" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="L38" s="76"/>
       <c r="M38" s="76" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="N38" s="76" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="O38" s="76" t="s">
         <v>1520</v>
@@ -29388,10 +29478,10 @@
         <v>1530</v>
       </c>
       <c r="Q38" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="R38" s="76" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="S38" s="79"/>
       <c r="V38" s="69"/>
@@ -29420,17 +29510,17 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="75" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="E40" s="75"/>
       <c r="F40" s="75" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="G40" s="75" t="s">
         <v>389</v>
       </c>
       <c r="H40" s="75" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="I40" s="75" t="s">
         <v>421</v>
@@ -29442,7 +29532,7 @@
         <v>310</v>
       </c>
       <c r="L40" s="75" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="M40" s="75"/>
       <c r="N40" s="75" t="s">
@@ -29455,10 +29545,10 @@
         <v>52</v>
       </c>
       <c r="Q40" s="75" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="R40" s="75" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="S40" s="78"/>
       <c r="V40" s="69"/>
@@ -29519,29 +29609,29 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="76" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="E42" s="76"/>
       <c r="F42" s="76" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="G42" s="76" t="s">
         <v>1706</v>
       </c>
       <c r="H42" s="76" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="J42" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="L42" s="76" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="M42" s="76"/>
       <c r="N42" s="76" t="s">
@@ -29551,13 +29641,13 @@
         <v>1505</v>
       </c>
       <c r="P42" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="Q42" s="76" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="R42" s="76" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="S42" s="79"/>
       <c r="V42" s="69"/>
@@ -29592,10 +29682,10 @@
         <v>1209</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="H44" s="75"/>
       <c r="I44" s="75" t="s">
@@ -29608,7 +29698,7 @@
         <v>338</v>
       </c>
       <c r="L44" s="75" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="M44" s="75" t="s">
         <v>1544</v>
@@ -29617,7 +29707,7 @@
         <v>336</v>
       </c>
       <c r="O44" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="P44" s="75" t="s">
         <v>308</v>
@@ -29688,26 +29778,26 @@
         <v>1545</v>
       </c>
       <c r="E46" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="G46" s="76" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="H46" s="76"/>
       <c r="I46" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="J46" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="L46" s="76" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="M46" s="76" t="s">
         <v>1545</v>
@@ -29716,14 +29806,14 @@
         <v>1505</v>
       </c>
       <c r="O46" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="P46" s="76" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="Q46" s="76"/>
       <c r="R46" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="S46" s="79"/>
       <c r="V46" s="69"/>
@@ -29758,25 +29848,25 @@
         <v>1501</v>
       </c>
       <c r="F48" s="75" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="G48" s="75" t="s">
         <v>1541</v>
       </c>
       <c r="H48" s="75" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="I48" s="75" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="J48" s="75" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="K48" s="75" t="s">
         <v>338</v>
       </c>
       <c r="L48" s="75" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="M48" s="75" t="s">
         <v>340</v>
@@ -29786,13 +29876,13 @@
         <v>421</v>
       </c>
       <c r="P48" s="75" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="Q48" s="75" t="s">
         <v>1206</v>
       </c>
       <c r="R48" s="75" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="S48" s="78"/>
       <c r="V48" s="69"/>
@@ -29853,47 +29943,47 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="G50" s="76" t="s">
         <v>1542</v>
       </c>
       <c r="H50" s="76" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="I50" s="76" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="J50" s="76" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="L50" s="76" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="M50" s="76" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="N50" s="76"/>
       <c r="O50" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="P50" s="76" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="Q50" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="R50" s="76" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="S50" s="79"/>
       <c r="V50" s="69"/>
@@ -29913,7 +30003,7 @@
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="P51" s="74"/>
       <c r="Q51" s="74"/>
@@ -29927,33 +30017,33 @@
         <v>338</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="F52" s="75" t="s">
         <v>363</v>
       </c>
       <c r="G52" s="75"/>
       <c r="H52" s="75" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="I52" s="75" t="s">
         <v>304</v>
       </c>
       <c r="J52" s="75" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="K52" s="75" t="s">
         <v>338</v>
       </c>
       <c r="L52" s="75" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="M52" s="75" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="N52" s="75"/>
       <c r="O52" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="P52" s="75" t="s">
         <v>53</v>
@@ -29962,7 +30052,7 @@
         <v>61</v>
       </c>
       <c r="R52" s="75" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="S52" s="78"/>
       <c r="V52" s="69"/>
@@ -30023,36 +30113,36 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
       <c r="D54" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="E54" s="76" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="G54" s="76"/>
       <c r="H54" s="76" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="I54" s="76" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="J54" s="76" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="L54" s="76" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="M54" s="76" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="N54" s="76"/>
       <c r="O54" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="P54" s="76" t="s">
         <v>1508</v>
@@ -30061,7 +30151,7 @@
         <v>1538</v>
       </c>
       <c r="R54" s="76" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="S54" s="79"/>
       <c r="V54" s="69"/>
@@ -30093,7 +30183,7 @@
         <v>51</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="F56" s="75" t="s">
         <v>421</v>
@@ -30118,7 +30208,7 @@
         <v>888</v>
       </c>
       <c r="N56" s="75" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="O56" s="75" t="s">
         <v>338</v>
@@ -30189,16 +30279,16 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="76" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="E58" s="76" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="F58" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="G58" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="H58" s="76" t="s">
         <v>1520</v>
@@ -30211,19 +30301,19 @@
         <v>1505</v>
       </c>
       <c r="L58" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="M58" s="76" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="N58" s="76" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="O58" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="P58" s="76" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="Q58" s="76"/>
       <c r="R58" s="76" t="s">
@@ -30262,7 +30352,7 @@
         <v>1403</v>
       </c>
       <c r="F60" s="75" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="G60" s="75" t="s">
         <v>421</v>
@@ -30271,14 +30361,14 @@
         <v>354</v>
       </c>
       <c r="I60" s="75" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="J60" s="75"/>
       <c r="K60" s="75" t="s">
         <v>421</v>
       </c>
       <c r="L60" s="75" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="M60" s="75" t="s">
         <v>413</v>
@@ -30287,16 +30377,16 @@
         <v>312</v>
       </c>
       <c r="O60" s="75" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="P60" s="75" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="Q60" s="75" t="s">
         <v>338</v>
       </c>
       <c r="R60" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="S60" s="78"/>
       <c r="V60" s="69"/>
@@ -30363,41 +30453,41 @@
         <v>1521</v>
       </c>
       <c r="F62" s="76" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="G62" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="H62" s="76" t="s">
         <v>1522</v>
       </c>
       <c r="I62" s="76" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="J62" s="76"/>
       <c r="K62" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="L62" s="76" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="M62" s="76" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N62" s="76" t="s">
+        <v>1808</v>
+      </c>
+      <c r="O62" s="76" t="s">
+        <v>1810</v>
+      </c>
+      <c r="P62" s="76" t="s">
         <v>1812</v>
       </c>
-      <c r="N62" s="76" t="s">
-        <v>1813</v>
-      </c>
-      <c r="O62" s="76" t="s">
-        <v>1815</v>
-      </c>
-      <c r="P62" s="76" t="s">
-        <v>1817</v>
-      </c>
       <c r="Q62" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="R62" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="S62" s="79"/>
       <c r="V62" s="69"/>
@@ -30427,11 +30517,11 @@
       <c r="B64" s="17"/>
       <c r="D64" s="75"/>
       <c r="E64" s="75" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="F64" s="75"/>
       <c r="G64" s="75" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="H64" s="75" t="s">
         <v>336</v>
@@ -30441,10 +30531,10 @@
       </c>
       <c r="J64" s="75"/>
       <c r="K64" s="75" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="L64" s="75" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="M64" s="75" t="s">
         <v>1167</v>
@@ -30456,13 +30546,13 @@
         <v>421</v>
       </c>
       <c r="P64" s="75" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="Q64" s="75" t="s">
         <v>45</v>
       </c>
       <c r="R64" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="S64" s="78"/>
       <c r="V64" s="69"/>
@@ -30524,42 +30614,42 @@
       <c r="B66" s="22"/>
       <c r="D66" s="76"/>
       <c r="E66" s="76" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="F66" s="76"/>
       <c r="G66" s="76" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="H66" s="76" t="s">
         <v>1505</v>
       </c>
       <c r="I66" s="76" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="J66" s="76"/>
       <c r="K66" s="76" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="L66" s="76" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="M66" s="76" t="s">
         <v>1536</v>
       </c>
       <c r="N66" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O66" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="P66" s="76" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="Q66" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="R66" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="S66" s="79"/>
       <c r="V66" s="69"/>
@@ -30608,22 +30698,22 @@
         <v>421</v>
       </c>
       <c r="L68" s="75" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="M68" s="75" t="s">
         <v>1547</v>
       </c>
       <c r="N68" s="75" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O68" s="75" t="s">
         <v>455</v>
       </c>
       <c r="P68" s="75" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="Q68" s="75" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="R68" s="75"/>
       <c r="S68" s="78"/>
@@ -30689,38 +30779,38 @@
         <v>1505</v>
       </c>
       <c r="F70" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="G70" s="76" t="s">
         <v>1522</v>
       </c>
       <c r="H70" s="76" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="I70" s="76" t="s">
         <v>1505</v>
       </c>
       <c r="J70" s="76"/>
       <c r="K70" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="L70" s="76" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="M70" s="76" t="s">
         <v>1548</v>
       </c>
       <c r="N70" s="76" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="O70" s="76" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="P70" s="76" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="Q70" s="76" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="R70" s="76"/>
       <c r="S70" s="79"/>
@@ -30753,7 +30843,7 @@
         <v>429</v>
       </c>
       <c r="E72" s="75" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="F72" s="75" t="s">
         <v>338</v>
@@ -30762,7 +30852,7 @@
         <v>304</v>
       </c>
       <c r="H72" s="75" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="I72" s="75"/>
       <c r="J72" s="75" t="s">
@@ -30770,7 +30860,7 @@
       </c>
       <c r="K72" s="75"/>
       <c r="L72" s="75" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="M72" s="75" t="s">
         <v>338</v>
@@ -30779,7 +30869,7 @@
         <v>304</v>
       </c>
       <c r="O72" s="75" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="P72" s="75"/>
       <c r="Q72" s="75" t="s">
@@ -30847,43 +30937,43 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="76" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="E74" s="76" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="F74" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="H74" s="76" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="I74" s="76"/>
       <c r="J74" s="76" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="K74" s="76"/>
       <c r="L74" s="76" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="M74" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N74" s="76" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O74" s="76" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="P74" s="76"/>
       <c r="Q74" s="76" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="R74" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="S74" s="79"/>
       <c r="V74" s="69"/>
@@ -30915,7 +31005,7 @@
         <v>304</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="F76" s="75"/>
       <c r="G76" s="75" t="s">
@@ -30928,7 +31018,7 @@
         <v>45</v>
       </c>
       <c r="J76" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="K76" s="75" t="s">
         <v>437</v>
@@ -31011,45 +31101,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="76" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="E78" s="76" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="F78" s="76"/>
       <c r="G78" s="76" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="H78" s="76" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="I78" s="76" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J78" s="76" t="s">
         <v>1713</v>
       </c>
-      <c r="J78" s="76" t="s">
-        <v>1715</v>
-      </c>
       <c r="K78" s="76" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="L78" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="M78" s="76" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N78" s="76" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O78" s="76" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P78" s="76" t="s">
         <v>1717</v>
-      </c>
-      <c r="N78" s="76" t="s">
-        <v>1723</v>
-      </c>
-      <c r="O78" s="76" t="s">
-        <v>1731</v>
-      </c>
-      <c r="P78" s="76" t="s">
-        <v>1721</v>
       </c>
       <c r="Q78" s="76"/>
       <c r="R78" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="S78" s="79"/>
       <c r="V78" s="69"/>
@@ -31070,8 +31160,8 @@
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
       <c r="P79" s="74"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="62"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
       <c r="V79" s="69"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -31090,13 +31180,13 @@
         <v>457</v>
       </c>
       <c r="I80" s="75" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="J80" s="75" t="s">
         <v>45</v>
       </c>
       <c r="K80" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="L80" s="75" t="s">
         <v>367</v>
@@ -31105,12 +31195,12 @@
         <v>338</v>
       </c>
       <c r="N80" s="75" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="O80" s="75"/>
       <c r="P80" s="75"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="75"/>
       <c r="S80" s="19"/>
       <c r="V80" s="69"/>
     </row>
@@ -31160,48 +31250,48 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q81" s="64"/>
-      <c r="R81" s="64"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
       <c r="S81" s="21"/>
       <c r="V81" s="69"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E82" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="F82" s="76" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="G82" s="76"/>
       <c r="H82" s="76" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="I82" s="76" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="J82" s="76" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K82" s="76" t="s">
         <v>1713</v>
       </c>
-      <c r="K82" s="76" t="s">
-        <v>1715</v>
-      </c>
       <c r="L82" s="76" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="M82" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N82" s="76" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="O82" s="76"/>
       <c r="P82" s="76"/>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="65"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="76"/>
       <c r="S82" s="31"/>
       <c r="V82" s="70"/>
     </row>
@@ -31223,7 +31313,7 @@
       <c r="P83" s="74"/>
       <c r="Q83" s="74"/>
       <c r="R83" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="S83" s="67"/>
       <c r="V83" s="36"/>
@@ -31234,16 +31324,16 @@
         <v>472</v>
       </c>
       <c r="E84" s="75" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="G84" s="75" t="s">
         <v>39</v>
       </c>
       <c r="H84" s="75" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="I84" s="75" t="s">
         <v>53</v>
@@ -31252,7 +31342,7 @@
         <v>338</v>
       </c>
       <c r="K84" s="75" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="L84" s="75" t="s">
         <v>45</v>
@@ -31261,7 +31351,7 @@
         <v>519</v>
       </c>
       <c r="N84" s="75" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="O84" s="75"/>
       <c r="P84" s="75" t="s">
@@ -31271,7 +31361,7 @@
         <v>63</v>
       </c>
       <c r="R84" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="S84" s="78"/>
       <c r="V84" s="7"/>
@@ -31335,44 +31425,44 @@
         <v>1537</v>
       </c>
       <c r="E86" s="76" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="F86" s="76" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="G86" s="76" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="H86" s="76" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="I86" s="76" t="s">
         <v>1508</v>
       </c>
       <c r="J86" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K86" s="76" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="L86" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="M86" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="N86" s="76" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="O86" s="76"/>
       <c r="P86" s="76" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="Q86" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="R86" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="S86" s="79"/>
       <c r="V86" s="7"/>
@@ -31401,10 +31491,10 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="75" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="E88" s="75" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="F88" s="75" t="s">
         <v>338</v>
@@ -31416,7 +31506,7 @@
         <v>421</v>
       </c>
       <c r="I88" s="75" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="J88" s="75" t="s">
         <v>338</v>
@@ -31426,7 +31516,7 @@
         <v>421</v>
       </c>
       <c r="M88" s="75" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="N88" s="75" t="s">
         <v>53</v>
@@ -31441,7 +31531,7 @@
         <v>45</v>
       </c>
       <c r="R88" s="75" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="S88" s="78"/>
       <c r="V88" s="7"/>
@@ -31502,32 +31592,32 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="76" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E90" s="76" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F90" s="76" t="s">
         <v>1726</v>
       </c>
-      <c r="E90" s="76" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F90" s="76" t="s">
-        <v>1731</v>
-      </c>
       <c r="G90" s="76" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="H90" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="I90" s="76" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="J90" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K90" s="76"/>
       <c r="L90" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="M90" s="76" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="N90" s="76" t="s">
         <v>1508</v>
@@ -31539,10 +31629,10 @@
         <v>1508</v>
       </c>
       <c r="Q90" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="R90" s="76" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="S90" s="79"/>
       <c r="V90" s="7"/>
@@ -31571,7 +31661,7 @@
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
       <c r="D92" s="75" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="E92" s="75" t="s">
         <v>421</v>
@@ -31580,20 +31670,20 @@
         <v>1209</v>
       </c>
       <c r="G92" s="75" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="H92" s="75"/>
       <c r="I92" s="75" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="J92" s="75" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="K92" s="75" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L92" s="75" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="M92" s="75" t="s">
         <v>1398</v>
@@ -31605,13 +31695,13 @@
         <v>389</v>
       </c>
       <c r="P92" s="75" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="Q92" s="75" t="s">
         <v>338</v>
       </c>
       <c r="R92" s="75" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="S92" s="78"/>
       <c r="V92" s="7"/>
@@ -31672,29 +31762,29 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="76" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="E94" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F94" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="G94" s="76" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="H94" s="76"/>
       <c r="I94" s="76" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="J94" s="76" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="K94" s="76" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L94" s="76" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="M94" s="76" t="s">
         <v>1500</v>
@@ -31706,13 +31796,13 @@
         <v>1706</v>
       </c>
       <c r="P94" s="76" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="Q94" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="R94" s="76" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="S94" s="79"/>
       <c r="V94" s="7"/>
@@ -31763,14 +31853,14 @@
         <v>45</v>
       </c>
       <c r="L96" s="75" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="M96" s="75" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="N96" s="75"/>
       <c r="O96" s="75" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="P96" s="75" t="s">
         <v>1399</v>
@@ -31843,42 +31933,42 @@
         <v>1505</v>
       </c>
       <c r="E98" s="76" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="F98" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G98" s="76" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="H98" s="76"/>
       <c r="I98" s="76" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="J98" s="76" t="s">
         <v>1536</v>
       </c>
       <c r="K98" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="L98" s="76" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="M98" s="76" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="N98" s="76"/>
       <c r="O98" s="76" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="P98" s="76" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="Q98" s="76" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="R98" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="S98" s="79"/>
       <c r="V98" s="7"/>
@@ -31897,7 +31987,7 @@
       <c r="L99" s="74"/>
       <c r="M99" s="74"/>
       <c r="N99" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="O99" s="74"/>
       <c r="P99" s="74"/>
@@ -31928,22 +32018,22 @@
         <v>519</v>
       </c>
       <c r="K100" s="75" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="L100" s="75" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="M100" s="75" t="s">
         <v>1504</v>
       </c>
       <c r="N100" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="O100" s="75" t="s">
         <v>455</v>
       </c>
       <c r="P100" s="75" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="Q100" s="75"/>
       <c r="R100" s="75" t="s">
@@ -32008,41 +32098,41 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="76" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E102" s="76" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="F102" s="76"/>
       <c r="G102" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="H102" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="I102" s="76" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="J102" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="K102" s="76" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="L102" s="76" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="M102" s="76" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="N102" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="O102" s="76" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="P102" s="76" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="Q102" s="76"/>
       <c r="R102" s="76" t="s">
@@ -32087,7 +32177,7 @@
         <v>411</v>
       </c>
       <c r="H104" s="75" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="I104" s="75" t="s">
         <v>63</v>
@@ -32100,19 +32190,19 @@
       </c>
       <c r="L104" s="75"/>
       <c r="M104" s="75" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="N104" s="75" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="O104" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="P104" s="75" t="s">
         <v>338</v>
       </c>
       <c r="Q104" s="75" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="R104" s="75"/>
       <c r="S104" s="78"/>
@@ -32174,44 +32264,44 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E106" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="F106" s="76" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="G106" s="76" t="s">
         <v>1502</v>
       </c>
       <c r="H106" s="76" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="I106" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="J106" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K106" s="76" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="L106" s="76"/>
       <c r="M106" s="76" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="N106" s="76" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="O106" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="P106" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="Q106" s="76" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="R106" s="76"/>
       <c r="S106" s="79"/>
@@ -32222,7 +32312,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="74"/>
       <c r="E107" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="F107" s="74"/>
       <c r="G107" s="74"/>
@@ -32246,16 +32336,16 @@
         <v>45</v>
       </c>
       <c r="E108" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="G108" s="75" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="H108" s="75" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="I108" s="75" t="s">
         <v>1206</v>
@@ -32344,47 +32434,47 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E110" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="F110" s="76" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="G110" s="76" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="H110" s="76" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="I110" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="J110" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K110" s="76" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="L110" s="76"/>
       <c r="M110" s="76" t="s">
         <v>1506</v>
       </c>
       <c r="N110" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O110" s="76" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="P110" s="76" t="s">
+        <v>1714</v>
+      </c>
+      <c r="Q110" s="76" t="s">
         <v>1717</v>
       </c>
-      <c r="Q110" s="76" t="s">
-        <v>1721</v>
-      </c>
       <c r="R110" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="S110" s="79"/>
       <c r="V110" s="7"/>
@@ -32398,7 +32488,7 @@
       <c r="G111" s="74"/>
       <c r="H111" s="74"/>
       <c r="I111" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="J111" s="74"/>
       <c r="K111" s="74"/>
@@ -32406,7 +32496,7 @@
       <c r="M111" s="74"/>
       <c r="N111" s="74"/>
       <c r="O111" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="P111" s="74"/>
       <c r="Q111" s="74"/>
@@ -32417,7 +32507,7 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="75" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="E112" s="75" t="s">
         <v>336</v>
@@ -32430,7 +32520,7 @@
         <v>1347</v>
       </c>
       <c r="I112" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="J112" s="75" t="s">
         <v>362</v>
@@ -32446,10 +32536,10 @@
         <v>317</v>
       </c>
       <c r="O112" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="P112" s="75" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="Q112" s="75"/>
       <c r="R112" s="75" t="s">
@@ -32514,7 +32604,7 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="76" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="E114" s="76" t="s">
         <v>1505</v>
@@ -32524,33 +32614,33 @@
         <v>1704</v>
       </c>
       <c r="H114" s="76" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="I114" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="J114" s="76" t="s">
         <v>1511</v>
       </c>
       <c r="K114" s="76"/>
       <c r="L114" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="M114" s="76" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="N114" s="76" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="O114" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="P114" s="76" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="Q114" s="76"/>
       <c r="R114" s="76" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="S114" s="79"/>
       <c r="V114" s="7"/>
@@ -32560,7 +32650,7 @@
       <c r="C115" s="34"/>
       <c r="D115" s="74"/>
       <c r="E115" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="F115" s="74"/>
       <c r="G115" s="74"/>
@@ -32584,10 +32674,10 @@
         <v>49</v>
       </c>
       <c r="E116" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="G116" s="75" t="s">
         <v>1206</v>
@@ -32604,7 +32694,7 @@
       </c>
       <c r="L116" s="75"/>
       <c r="M116" s="75" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="N116" s="75" t="s">
         <v>1512</v>
@@ -32616,7 +32706,7 @@
         <v>336</v>
       </c>
       <c r="Q116" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="R116" s="75" t="s">
         <v>63</v>
@@ -32680,33 +32770,33 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="76" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="E118" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="F118" s="76" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="G118" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="H118" s="76" t="s">
         <v>1709</v>
       </c>
       <c r="I118" s="76"/>
       <c r="J118" s="76" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="K118" s="76" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="L118" s="76"/>
       <c r="M118" s="76" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="N118" s="76" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="O118" s="76" t="s">
         <v>1545</v>
@@ -32715,10 +32805,10 @@
         <v>1505</v>
       </c>
       <c r="Q118" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="R118" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="S118" s="79"/>
       <c r="V118" s="7"/>
@@ -32760,7 +32850,7 @@
         <v>336</v>
       </c>
       <c r="I120" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="J120" s="75" t="s">
         <v>428</v>
@@ -32783,7 +32873,7 @@
         <v>376</v>
       </c>
       <c r="R120" s="75" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="S120" s="78"/>
       <c r="V120" s="7"/>
@@ -32845,10 +32935,10 @@
       <c r="B122" s="22"/>
       <c r="D122" s="76"/>
       <c r="E122" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="G122" s="76" t="s">
         <v>1545</v>
@@ -32857,30 +32947,30 @@
         <v>1505</v>
       </c>
       <c r="I122" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="J122" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="K122" s="76"/>
       <c r="L122" s="76" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="M122" s="76" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="N122" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O122" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="P122" s="76"/>
       <c r="Q122" s="76" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="R122" s="76" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="S122" s="79"/>
       <c r="V122" s="7"/>
@@ -32889,7 +32979,7 @@
       <c r="B123" s="12"/>
       <c r="C123" s="34"/>
       <c r="D123" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="E123" s="74"/>
       <c r="F123" s="74"/>
@@ -32901,7 +32991,7 @@
       <c r="L123" s="74"/>
       <c r="M123" s="74"/>
       <c r="N123" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="O123" s="74"/>
       <c r="P123" s="74"/>
@@ -32913,10 +33003,10 @@
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
       <c r="D124" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="E124" s="75" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="F124" s="75"/>
       <c r="G124" s="75" t="s">
@@ -32936,20 +33026,20 @@
         <v>376</v>
       </c>
       <c r="M124" s="75" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="N124" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="O124" s="75" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="P124" s="75"/>
       <c r="Q124" s="75" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="R124" s="75" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="S124" s="78"/>
       <c r="V124" s="7"/>
@@ -33010,43 +33100,43 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="E126" s="76" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="F126" s="76"/>
       <c r="G126" s="76" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="H126" s="76" t="s">
         <v>1522</v>
       </c>
       <c r="I126" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="J126" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="K126" s="76"/>
       <c r="L126" s="76" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="M126" s="76" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="N126" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="O126" s="76" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="P126" s="76"/>
       <c r="Q126" s="76" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="R126" s="76" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="S126" s="79"/>
       <c r="V126" s="7"/>
@@ -33056,14 +33146,14 @@
       <c r="C127" s="34"/>
       <c r="D127" s="74"/>
       <c r="E127" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="F127" s="74"/>
       <c r="G127" s="74"/>
       <c r="H127" s="74"/>
       <c r="I127" s="74"/>
       <c r="J127" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="K127" s="74"/>
       <c r="L127" s="74"/>
@@ -33082,10 +33172,10 @@
         <v>798</v>
       </c>
       <c r="E128" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="F128" s="75" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="G128" s="75" t="s">
         <v>63</v>
@@ -33094,13 +33184,13 @@
         <v>421</v>
       </c>
       <c r="I128" s="75" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="J128" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="K128" s="75" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="L128" s="75" t="s">
         <v>470</v>
@@ -33180,47 +33270,47 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="22"/>
       <c r="D130" s="76" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="E130" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="F130" s="76" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="G130" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="H130" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="I130" s="76" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="J130" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="K130" s="76" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="L130" s="76" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="M130" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N130" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="O130" s="76" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="P130" s="76"/>
       <c r="Q130" s="76" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="R130" s="76" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="S130" s="79"/>
       <c r="V130" s="7"/>
@@ -33229,33 +33319,33 @@
       <c r="B131" s="12"/>
       <c r="C131" s="34"/>
       <c r="D131" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="E131" s="74"/>
       <c r="F131" s="74"/>
       <c r="G131" s="74"/>
       <c r="H131" s="74"/>
       <c r="I131" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="J131" s="74"/>
       <c r="K131" s="74"/>
       <c r="L131" s="74"/>
       <c r="M131" s="74"/>
       <c r="N131" s="74"/>
-      <c r="O131" s="62"/>
-      <c r="P131" s="62"/>
-      <c r="Q131" s="62"/>
-      <c r="R131" s="62"/>
+      <c r="O131" s="74"/>
+      <c r="P131" s="74"/>
+      <c r="Q131" s="74"/>
+      <c r="R131" s="74"/>
       <c r="V131" s="36"/>
     </row>
     <row r="132" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="17"/>
       <c r="D132" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="E132" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="F132" s="75" t="s">
         <v>63</v>
@@ -33264,13 +33354,13 @@
         <v>421</v>
       </c>
       <c r="H132" s="75" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="I132" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="J132" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="K132" s="75" t="s">
         <v>428</v>
@@ -33280,10 +33370,10 @@
       </c>
       <c r="M132" s="75"/>
       <c r="N132" s="75"/>
-      <c r="O132" s="63"/>
-      <c r="P132" s="63"/>
-      <c r="Q132" s="63"/>
-      <c r="R132" s="63"/>
+      <c r="O132" s="75"/>
+      <c r="P132" s="75"/>
+      <c r="Q132" s="75"/>
+      <c r="R132" s="75"/>
       <c r="S132" s="19"/>
       <c r="V132" s="7"/>
     </row>
@@ -33327,48 +33417,48 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O133" s="64"/>
-      <c r="P133" s="64"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="64"/>
+      <c r="O133" s="73"/>
+      <c r="P133" s="73"/>
+      <c r="Q133" s="73"/>
+      <c r="R133" s="73"/>
       <c r="S133" s="21"/>
       <c r="V133" s="7"/>
     </row>
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="22"/>
       <c r="D134" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="E134" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="F134" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="G134" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="H134" s="76" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="I134" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="J134" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="K134" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="L134" s="76" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="M134" s="76"/>
       <c r="N134" s="76"/>
-      <c r="O134" s="65"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="65"/>
-      <c r="R134" s="65"/>
+      <c r="O134" s="76"/>
+      <c r="P134" s="76"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="76"/>
       <c r="S134" s="31"/>
       <c r="V134" s="7"/>
     </row>
@@ -33415,19 +33505,19 @@
         <v>428</v>
       </c>
       <c r="K136" s="75" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="L136" s="75" t="s">
         <v>840</v>
       </c>
       <c r="M136" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="N136" s="75" t="s">
         <v>338</v>
       </c>
       <c r="O136" s="75" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="P136" s="75"/>
       <c r="Q136" s="75" t="s">
@@ -33495,45 +33585,45 @@
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="22"/>
       <c r="D138" s="76" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="E138" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="F138" s="76" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="G138" s="76" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="H138" s="76"/>
       <c r="I138" s="76" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="J138" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="K138" s="76" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="L138" s="76" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="M138" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="N138" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O138" s="76" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="P138" s="76"/>
       <c r="Q138" s="76" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="R138" s="76" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="S138" s="79"/>
       <c r="V138" s="7"/>
@@ -33568,20 +33658,20 @@
         <v>338</v>
       </c>
       <c r="F140" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>48</v>
       </c>
       <c r="H140" s="75" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="I140" s="75"/>
       <c r="J140" s="75" t="s">
         <v>384</v>
       </c>
       <c r="K140" s="75" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="L140" s="75" t="s">
         <v>366</v>
@@ -33590,7 +33680,7 @@
         <v>338</v>
       </c>
       <c r="N140" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="O140" s="75" t="s">
         <v>48</v>
@@ -33664,42 +33754,42 @@
         <v>1704</v>
       </c>
       <c r="E142" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="F142" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="G142" s="76" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="H142" s="76" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="I142" s="76"/>
       <c r="J142" s="76" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="K142" s="76" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="L142" s="76" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="M142" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N142" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="O142" s="76" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="P142" s="76" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="Q142" s="76"/>
       <c r="R142" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="S142" s="79"/>
       <c r="V142" s="7"/>
@@ -33740,13 +33830,13 @@
         <v>56</v>
       </c>
       <c r="H144" s="75" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="I144" s="75" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="J144" s="75" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="K144" s="75"/>
       <c r="L144" s="75" t="s">
@@ -33756,7 +33846,7 @@
         <v>52</v>
       </c>
       <c r="N144" s="75" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="O144" s="75" t="s">
         <v>49</v>
@@ -33766,7 +33856,7 @@
       </c>
       <c r="Q144" s="75"/>
       <c r="R144" s="75" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="S144" s="78"/>
       <c r="V144" s="7"/>
@@ -33827,45 +33917,45 @@
     <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="76" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="E146" s="76" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="F146" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G146" s="76" t="s">
         <v>1506</v>
       </c>
       <c r="H146" s="76" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="I146" s="76" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="J146" s="76" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="K146" s="76"/>
       <c r="L146" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="M146" s="76" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="N146" s="76" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="O146" s="76" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="P146" s="76" t="s">
         <v>1546</v>
       </c>
       <c r="Q146" s="76"/>
       <c r="R146" s="76" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="S146" s="79"/>
       <c r="V146" s="7"/>
@@ -33904,7 +33994,7 @@
         <v>336</v>
       </c>
       <c r="H148" s="75" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="I148" s="75" t="s">
         <v>1425</v>
@@ -33917,13 +34007,13 @@
       </c>
       <c r="L148" s="75"/>
       <c r="M148" s="75" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="N148" s="75" t="s">
         <v>428</v>
       </c>
       <c r="O148" s="75" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="P148" s="75" t="s">
         <v>45</v>
@@ -33994,17 +34084,17 @@
         <v>1538</v>
       </c>
       <c r="E150" s="76" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="F150" s="76"/>
       <c r="G150" s="76" t="s">
         <v>1505</v>
       </c>
       <c r="H150" s="76" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="I150" s="76" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="J150" s="76" t="s">
         <v>1708</v>
@@ -34014,19 +34104,19 @@
       </c>
       <c r="L150" s="76"/>
       <c r="M150" s="76" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="N150" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="O150" s="76" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="P150" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="Q150" s="76" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="R150" s="76"/>
       <c r="S150" s="79"/>
@@ -34059,19 +34149,19 @@
         <v>383</v>
       </c>
       <c r="E152" s="75" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="G152" s="75" t="s">
         <v>338</v>
       </c>
       <c r="H152" s="75" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="I152" s="75" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="J152" s="75" t="s">
         <v>519</v>
@@ -34083,7 +34173,7 @@
         <v>1209</v>
       </c>
       <c r="M152" s="75" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="N152" s="75" t="s">
         <v>1167</v>
@@ -34157,47 +34247,47 @@
     <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="76" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="E154" s="76" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="F154" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G154" s="76" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H154" s="76" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I154" s="76" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J154" s="76" t="s">
+        <v>2105</v>
+      </c>
+      <c r="K154" s="76" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L154" s="76" t="s">
+        <v>1719</v>
+      </c>
+      <c r="M154" s="76" t="s">
         <v>1924</v>
-      </c>
-      <c r="G154" s="76" t="s">
-        <v>1731</v>
-      </c>
-      <c r="H154" s="76" t="s">
-        <v>1926</v>
-      </c>
-      <c r="I154" s="76" t="s">
-        <v>2134</v>
-      </c>
-      <c r="J154" s="76" t="s">
-        <v>2112</v>
-      </c>
-      <c r="K154" s="76" t="s">
-        <v>1717</v>
-      </c>
-      <c r="L154" s="76" t="s">
-        <v>1724</v>
-      </c>
-      <c r="M154" s="76" t="s">
-        <v>1929</v>
       </c>
       <c r="N154" s="76" t="s">
         <v>1536</v>
       </c>
       <c r="O154" s="76"/>
       <c r="P154" s="76" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="Q154" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="R154" s="76" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="S154" s="79"/>
       <c r="V154" s="7"/>
@@ -34226,7 +34316,7 @@
     <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
       <c r="D156" s="75" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="E156" s="75"/>
       <c r="F156" s="75" t="s">
@@ -34251,7 +34341,7 @@
         <v>422</v>
       </c>
       <c r="M156" s="75" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="N156" s="75" t="s">
         <v>336</v>
@@ -34325,45 +34415,45 @@
     <row r="158" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="22"/>
       <c r="D158" s="76" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="E158" s="76"/>
       <c r="F158" s="76" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="G158" s="76" t="s">
         <v>1502</v>
       </c>
       <c r="H158" s="76" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="I158" s="76" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="J158" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="K158" s="76" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="L158" s="76" t="s">
         <v>1709</v>
       </c>
       <c r="M158" s="76" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="N158" s="76" t="s">
         <v>1505</v>
       </c>
       <c r="O158" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="P158" s="76" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="Q158" s="76"/>
       <c r="R158" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="S158" s="79"/>
       <c r="V158" s="7"/>
@@ -34395,16 +34485,16 @@
         <v>428</v>
       </c>
       <c r="E160" s="75" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="F160" s="75" t="s">
         <v>1209</v>
       </c>
       <c r="G160" s="75" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="H160" s="75" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="I160" s="75" t="s">
         <v>1206</v>
@@ -34494,22 +34584,22 @@
         <v>1708</v>
       </c>
       <c r="E162" s="76" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="F162" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="G162" s="76" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="H162" s="76" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="I162" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="J162" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K162" s="76"/>
       <c r="L162" s="76" t="s">
@@ -34519,16 +34609,16 @@
         <v>1704</v>
       </c>
       <c r="N162" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="O162" s="76" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="P162" s="76" t="s">
         <v>1709</v>
       </c>
       <c r="Q162" s="76" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="R162" s="76"/>
       <c r="S162" s="79"/>
@@ -34544,7 +34634,7 @@
       <c r="H163" s="74"/>
       <c r="I163" s="74"/>
       <c r="J163" s="74" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="K163" s="74"/>
       <c r="L163" s="74"/>
@@ -34575,10 +34665,10 @@
         <v>1516</v>
       </c>
       <c r="I164" s="75" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="J164" s="75" t="s">
-        <v>455</v>
+        <v>2137</v>
       </c>
       <c r="K164" s="75" t="s">
         <v>428</v>
@@ -34588,16 +34678,16 @@
         <v>421</v>
       </c>
       <c r="N164" s="75" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="O164" s="75" t="s">
         <v>336</v>
       </c>
       <c r="P164" s="75" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="Q164" s="75" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="R164" s="75" t="s">
         <v>338</v>
@@ -34661,47 +34751,47 @@
     <row r="166" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="22"/>
       <c r="D166" s="76" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="E166" s="76" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="F166" s="76" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="G166" s="76" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="H166" s="76" t="s">
         <v>1517</v>
       </c>
       <c r="I166" s="76" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="J166" s="76" t="s">
-        <v>1730</v>
+        <v>2138</v>
       </c>
       <c r="K166" s="76" t="s">
         <v>1708</v>
       </c>
       <c r="L166" s="76"/>
       <c r="M166" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="N166" s="76" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="O166" s="76" t="s">
         <v>1505</v>
       </c>
       <c r="P166" s="76" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="Q166" s="76" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="R166" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="S166" s="79"/>
       <c r="V166" s="7"/>
@@ -34734,22 +34824,22 @@
       </c>
       <c r="E168" s="75"/>
       <c r="F168" s="75" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="G168" s="75" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="H168" s="75" t="s">
         <v>1550</v>
       </c>
       <c r="I168" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="J168" s="75" t="s">
         <v>338</v>
       </c>
       <c r="K168" s="75" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="L168" s="75"/>
       <c r="M168" s="75" t="s">
@@ -34762,7 +34852,7 @@
         <v>840</v>
       </c>
       <c r="P168" s="75" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="Q168" s="75" t="s">
         <v>338</v>
@@ -34829,42 +34919,42 @@
       <c r="B170" s="22"/>
       <c r="C170" s="6"/>
       <c r="D170" s="76" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="E170" s="76"/>
       <c r="F170" s="76" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="G170" s="76" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="H170" s="76" t="s">
         <v>1551</v>
       </c>
       <c r="I170" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="J170" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="K170" s="76" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="L170" s="76"/>
       <c r="M170" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="N170" s="76" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="O170" s="76" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="P170" s="76" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="Q170" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="R170" s="76" t="s">
         <v>1522</v>
@@ -34895,7 +34985,7 @@
       <c r="B172" s="17"/>
       <c r="C172" s="6"/>
       <c r="D172" s="75" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="E172" s="75" t="s">
         <v>1206</v>
@@ -34911,7 +35001,7 @@
         <v>338</v>
       </c>
       <c r="J172" s="75" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="K172" s="75" t="s">
         <v>479</v>
@@ -34930,7 +35020,7 @@
         <v>421</v>
       </c>
       <c r="Q172" s="75" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="R172" s="75" t="s">
         <v>428</v>
@@ -34994,10 +35084,10 @@
       <c r="B174" s="22"/>
       <c r="C174" s="6"/>
       <c r="D174" s="76" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="E174" s="76" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="F174" s="76"/>
       <c r="G174" s="76" t="s">
@@ -35007,13 +35097,13 @@
         <v>1539</v>
       </c>
       <c r="I174" s="76" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="J174" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="K174" s="76" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="L174" s="76" t="s">
         <v>1522</v>
@@ -35022,14 +35112,14 @@
         <v>1709</v>
       </c>
       <c r="N174" s="76" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="O174" s="76"/>
       <c r="P174" s="76" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="Q174" s="76" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="R174" s="76" t="s">
         <v>1708</v>
@@ -35043,40 +35133,40 @@
       <c r="E175" s="74"/>
       <c r="F175" s="74"/>
       <c r="G175" s="74"/>
-      <c r="H175" s="62"/>
-      <c r="I175" s="62"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="62"/>
-      <c r="L175" s="62"/>
-      <c r="M175" s="62"/>
-      <c r="N175" s="62"/>
-      <c r="O175" s="62"/>
-      <c r="P175" s="62"/>
-      <c r="Q175" s="62"/>
-      <c r="R175" s="62"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
+      <c r="N175" s="74"/>
+      <c r="O175" s="74"/>
+      <c r="P175" s="74"/>
+      <c r="Q175" s="74"/>
+      <c r="R175" s="74"/>
     </row>
     <row r="176" spans="2:22" ht="44.25">
       <c r="B176" s="17"/>
       <c r="C176" s="6"/>
       <c r="D176" s="75" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="E176" s="75" t="s">
         <v>469</v>
       </c>
       <c r="F176" s="75"/>
       <c r="G176" s="75"/>
-      <c r="H176" s="63"/>
-      <c r="I176" s="63"/>
-      <c r="J176" s="63"/>
-      <c r="K176" s="63"/>
-      <c r="L176" s="63"/>
-      <c r="M176" s="63"/>
-      <c r="N176" s="63"/>
-      <c r="O176" s="63"/>
-      <c r="P176" s="63"/>
-      <c r="Q176" s="63"/>
-      <c r="R176" s="63"/>
+      <c r="H176" s="75"/>
+      <c r="I176" s="75"/>
+      <c r="J176" s="75"/>
+      <c r="K176" s="75"/>
+      <c r="L176" s="75"/>
+      <c r="M176" s="75"/>
+      <c r="N176" s="75"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="75"/>
+      <c r="Q176" s="75"/>
+      <c r="R176" s="75"/>
     </row>
     <row r="177" spans="2:18" ht="114">
       <c r="B177" s="20">
@@ -35098,78 +35188,78 @@
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H177" s="64"/>
-      <c r="I177" s="64"/>
-      <c r="J177" s="64"/>
-      <c r="K177" s="64"/>
-      <c r="L177" s="64"/>
-      <c r="M177" s="64"/>
-      <c r="N177" s="64"/>
-      <c r="O177" s="64"/>
-      <c r="P177" s="64"/>
-      <c r="Q177" s="64"/>
-      <c r="R177" s="64"/>
+      <c r="H177" s="73"/>
+      <c r="I177" s="73"/>
+      <c r="J177" s="73"/>
+      <c r="K177" s="73"/>
+      <c r="L177" s="73"/>
+      <c r="M177" s="73"/>
+      <c r="N177" s="73"/>
+      <c r="O177" s="73"/>
+      <c r="P177" s="73"/>
+      <c r="Q177" s="73"/>
+      <c r="R177" s="73"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="22"/>
       <c r="C178" s="6"/>
       <c r="D178" s="76" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="E178" s="76" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="F178" s="76"/>
       <c r="G178" s="76"/>
-      <c r="H178" s="65"/>
-      <c r="I178" s="65"/>
-      <c r="J178" s="65"/>
-      <c r="K178" s="65"/>
-      <c r="L178" s="65"/>
-      <c r="M178" s="65"/>
-      <c r="N178" s="65"/>
-      <c r="O178" s="65"/>
-      <c r="P178" s="65"/>
-      <c r="Q178" s="65"/>
-      <c r="R178" s="65"/>
+      <c r="H178" s="76"/>
+      <c r="I178" s="76"/>
+      <c r="J178" s="76"/>
+      <c r="K178" s="76"/>
+      <c r="L178" s="76"/>
+      <c r="M178" s="76"/>
+      <c r="N178" s="76"/>
+      <c r="O178" s="76"/>
+      <c r="P178" s="76"/>
+      <c r="Q178" s="76"/>
+      <c r="R178" s="76"/>
     </row>
     <row r="179" spans="2:18">
       <c r="B179" s="12"/>
       <c r="C179" s="34"/>
       <c r="D179" s="74"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="62"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="62"/>
-      <c r="I179" s="62"/>
-      <c r="J179" s="62"/>
-      <c r="K179" s="62"/>
-      <c r="L179" s="62"/>
-      <c r="M179" s="62"/>
-      <c r="N179" s="62"/>
-      <c r="O179" s="62"/>
-      <c r="P179" s="62"/>
-      <c r="Q179" s="62"/>
-      <c r="R179" s="62"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="74"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="74"/>
+      <c r="K179" s="74"/>
+      <c r="L179" s="74"/>
+      <c r="M179" s="74"/>
+      <c r="N179" s="74"/>
+      <c r="O179" s="74"/>
+      <c r="P179" s="74"/>
+      <c r="Q179" s="74"/>
+      <c r="R179" s="74"/>
     </row>
     <row r="180" spans="2:18" ht="44.25">
       <c r="B180" s="17"/>
       <c r="C180" s="6"/>
       <c r="D180" s="75"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63"/>
-      <c r="N180" s="63"/>
-      <c r="O180" s="63"/>
-      <c r="P180" s="63"/>
-      <c r="Q180" s="63"/>
-      <c r="R180" s="63"/>
+      <c r="E180" s="75"/>
+      <c r="F180" s="75"/>
+      <c r="G180" s="75"/>
+      <c r="H180" s="75"/>
+      <c r="I180" s="75"/>
+      <c r="J180" s="75"/>
+      <c r="K180" s="75"/>
+      <c r="L180" s="75"/>
+      <c r="M180" s="75"/>
+      <c r="N180" s="75"/>
+      <c r="O180" s="75"/>
+      <c r="P180" s="75"/>
+      <c r="Q180" s="75"/>
+      <c r="R180" s="75"/>
     </row>
     <row r="181" spans="2:18" ht="114">
       <c r="B181" s="20">
@@ -35180,77 +35270,77 @@
       <c r="D181" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E181" s="64"/>
-      <c r="F181" s="64"/>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64"/>
-      <c r="I181" s="64"/>
-      <c r="J181" s="64"/>
-      <c r="K181" s="64"/>
-      <c r="L181" s="64"/>
-      <c r="M181" s="64"/>
-      <c r="N181" s="64"/>
-      <c r="O181" s="64"/>
-      <c r="P181" s="64"/>
-      <c r="Q181" s="64"/>
-      <c r="R181" s="64"/>
+      <c r="E181" s="73"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="73"/>
+      <c r="H181" s="73"/>
+      <c r="I181" s="73"/>
+      <c r="J181" s="73"/>
+      <c r="K181" s="73"/>
+      <c r="L181" s="73"/>
+      <c r="M181" s="73"/>
+      <c r="N181" s="73"/>
+      <c r="O181" s="73"/>
+      <c r="P181" s="73"/>
+      <c r="Q181" s="73"/>
+      <c r="R181" s="73"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="22"/>
       <c r="C182" s="6"/>
       <c r="D182" s="76"/>
-      <c r="E182" s="65"/>
-      <c r="F182" s="65"/>
-      <c r="G182" s="65"/>
-      <c r="H182" s="65"/>
-      <c r="I182" s="65"/>
-      <c r="J182" s="65"/>
-      <c r="K182" s="65"/>
-      <c r="L182" s="65"/>
-      <c r="M182" s="65"/>
-      <c r="N182" s="65"/>
-      <c r="O182" s="65"/>
-      <c r="P182" s="65"/>
-      <c r="Q182" s="65"/>
-      <c r="R182" s="65"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="76"/>
+      <c r="H182" s="76"/>
+      <c r="I182" s="76"/>
+      <c r="J182" s="76"/>
+      <c r="K182" s="76"/>
+      <c r="L182" s="76"/>
+      <c r="M182" s="76"/>
+      <c r="N182" s="76"/>
+      <c r="O182" s="76"/>
+      <c r="P182" s="76"/>
+      <c r="Q182" s="76"/>
+      <c r="R182" s="76"/>
     </row>
     <row r="183" spans="2:18">
       <c r="B183" s="12"/>
       <c r="C183" s="34"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
-      <c r="F183" s="62"/>
-      <c r="G183" s="62"/>
-      <c r="H183" s="62"/>
-      <c r="I183" s="62"/>
-      <c r="J183" s="62"/>
-      <c r="K183" s="62"/>
-      <c r="L183" s="62"/>
-      <c r="M183" s="62"/>
-      <c r="N183" s="62"/>
-      <c r="O183" s="62"/>
-      <c r="P183" s="62"/>
-      <c r="Q183" s="62"/>
-      <c r="R183" s="62"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="74"/>
+      <c r="H183" s="74"/>
+      <c r="I183" s="74"/>
+      <c r="J183" s="74"/>
+      <c r="K183" s="74"/>
+      <c r="L183" s="74"/>
+      <c r="M183" s="74"/>
+      <c r="N183" s="74"/>
+      <c r="O183" s="74"/>
+      <c r="P183" s="74"/>
+      <c r="Q183" s="74"/>
+      <c r="R183" s="74"/>
     </row>
     <row r="184" spans="2:18" ht="44.25">
       <c r="B184" s="17"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="63"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-      <c r="K184" s="63"/>
-      <c r="L184" s="63"/>
-      <c r="M184" s="63"/>
-      <c r="N184" s="63"/>
-      <c r="O184" s="63"/>
-      <c r="P184" s="63"/>
-      <c r="Q184" s="63"/>
-      <c r="R184" s="63"/>
+      <c r="D184" s="75"/>
+      <c r="E184" s="75"/>
+      <c r="F184" s="75"/>
+      <c r="G184" s="75"/>
+      <c r="H184" s="75"/>
+      <c r="I184" s="75"/>
+      <c r="J184" s="75"/>
+      <c r="K184" s="75"/>
+      <c r="L184" s="75"/>
+      <c r="M184" s="75"/>
+      <c r="N184" s="75"/>
+      <c r="O184" s="75"/>
+      <c r="P184" s="75"/>
+      <c r="Q184" s="75"/>
+      <c r="R184" s="75"/>
     </row>
     <row r="185" spans="2:18" ht="114">
       <c r="B185" s="20">
@@ -35258,47 +35348,47 @@
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="64"/>
-      <c r="J185" s="64"/>
-      <c r="K185" s="64"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="64"/>
-      <c r="N185" s="64"/>
-      <c r="O185" s="64"/>
-      <c r="P185" s="64"/>
-      <c r="Q185" s="64"/>
-      <c r="R185" s="64"/>
+      <c r="D185" s="73"/>
+      <c r="E185" s="73"/>
+      <c r="F185" s="73"/>
+      <c r="G185" s="73"/>
+      <c r="H185" s="73"/>
+      <c r="I185" s="73"/>
+      <c r="J185" s="73"/>
+      <c r="K185" s="73"/>
+      <c r="L185" s="73"/>
+      <c r="M185" s="73"/>
+      <c r="N185" s="73"/>
+      <c r="O185" s="73"/>
+      <c r="P185" s="73"/>
+      <c r="Q185" s="73"/>
+      <c r="R185" s="73"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="22"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="65"/>
-      <c r="E186" s="65"/>
-      <c r="F186" s="65"/>
-      <c r="G186" s="65"/>
-      <c r="H186" s="65"/>
-      <c r="I186" s="65"/>
-      <c r="J186" s="65"/>
-      <c r="K186" s="65"/>
-      <c r="L186" s="65"/>
-      <c r="M186" s="65"/>
-      <c r="N186" s="65"/>
-      <c r="O186" s="65"/>
-      <c r="P186" s="65"/>
-      <c r="Q186" s="65"/>
-      <c r="R186" s="65"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="76"/>
+      <c r="F186" s="76"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="76"/>
+      <c r="I186" s="76"/>
+      <c r="J186" s="76"/>
+      <c r="K186" s="76"/>
+      <c r="L186" s="76"/>
+      <c r="M186" s="76"/>
+      <c r="N186" s="76"/>
+      <c r="O186" s="76"/>
+      <c r="P186" s="76"/>
+      <c r="Q186" s="76"/>
+      <c r="R186" s="76"/>
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="12"/>
       <c r="C187" s="34"/>
-      <c r="D187" s="62"/>
-      <c r="E187" s="62"/>
-      <c r="F187" s="62"/>
+      <c r="D187" s="74"/>
+      <c r="E187" s="74"/>
+      <c r="F187" s="74"/>
       <c r="G187" s="62"/>
       <c r="H187" s="62"/>
       <c r="I187" s="62"/>
@@ -35315,8 +35405,8 @@
     <row r="188" spans="2:18" ht="44.25">
       <c r="B188" s="17"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="63"/>
-      <c r="E188" s="63"/>
+      <c r="D188" s="75"/>
+      <c r="E188" s="75"/>
       <c r="F188" s="63"/>
       <c r="G188" s="63"/>
       <c r="H188" s="63"/>
@@ -35337,9 +35427,9 @@
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
-      <c r="F189" s="64"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="73"/>
+      <c r="F189" s="73"/>
       <c r="G189" s="64"/>
       <c r="H189" s="64"/>
       <c r="I189" s="64"/>
@@ -35356,8 +35446,8 @@
     <row r="190" spans="2:18">
       <c r="B190" s="22"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="65"/>
+      <c r="D190" s="76"/>
+      <c r="E190" s="76"/>
       <c r="F190" s="65"/>
       <c r="G190" s="65"/>
       <c r="H190" s="65"/>

--- a/output7/【河洛文讀注音-閩拼調符】《深慮論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《深慮論》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B499E1AB-7852-453D-ACF1-C45AA853CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F559F5-13AB-4AF0-9ACC-762091274D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7422" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7422" uniqueCount="2223">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6157,14 +6157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ziǎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7129,14 +7121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kat1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gāt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kuan3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7161,14 +7145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ciah1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciāh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jim2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7537,6 +7513,26 @@
   </si>
   <si>
     <t>gài</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hâ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giāt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cīk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10475,7 +10471,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -10491,7 +10487,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -22465,16 +22461,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="B1" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="C1" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="D1" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
     </row>
   </sheetData>
@@ -22488,23 +22484,23 @@
   <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="B1" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="C1" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="D1" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -22616,7 +22612,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -22627,7 +22623,7 @@
         <v>794</v>
       </c>
       <c r="C10" t="s">
-        <v>794</v>
+        <v>2199</v>
       </c>
       <c r="D10" t="s">
         <v>1694</v>
@@ -22658,7 +22654,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -22686,7 +22682,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -22728,7 +22724,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -22784,7 +22780,7 @@
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -22823,10 +22819,10 @@
         <v>704</v>
       </c>
       <c r="C24" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D24" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -22854,7 +22850,7 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -22896,7 +22892,7 @@
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -22904,10 +22900,10 @@
         <v>1163</v>
       </c>
       <c r="B30" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C30" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D30" t="s">
         <v>961</v>
@@ -23019,7 +23015,7 @@
         <v>1850</v>
       </c>
       <c r="C38" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D38" t="s">
         <v>1277</v>
@@ -23030,10 +23026,10 @@
         <v>1468</v>
       </c>
       <c r="B39" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="C39" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D39" t="s">
         <v>1709</v>
@@ -23050,7 +23046,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -23078,7 +23074,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -23142,10 +23138,10 @@
         <v>1251</v>
       </c>
       <c r="B47" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="C47" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D47" t="s">
         <v>1714</v>
@@ -23156,27 +23152,27 @@
         <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="C48" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D48" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B49" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="C49" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D49" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -23288,7 +23284,7 @@
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -23302,7 +23298,7 @@
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -23316,7 +23312,7 @@
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -23344,7 +23340,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -23355,10 +23351,10 @@
         <v>695</v>
       </c>
       <c r="C62" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D62" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -23506,10 +23502,10 @@
         <v>1489</v>
       </c>
       <c r="B73" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="C73" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D73" t="s">
         <v>1726</v>
@@ -23523,7 +23519,7 @@
         <v>519</v>
       </c>
       <c r="C74" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D74" t="s">
         <v>1727</v>
@@ -23568,7 +23564,7 @@
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -23596,7 +23592,7 @@
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -23699,7 +23695,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="B87" t="s">
         <v>304</v>
@@ -23750,7 +23746,7 @@
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -23797,13 +23793,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B94" t="s">
         <v>888</v>
       </c>
       <c r="C94" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D94" t="s">
         <v>1738</v>
@@ -23811,16 +23807,16 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="B95" t="s">
         <v>607</v>
       </c>
       <c r="C95" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D95" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -23876,7 +23872,7 @@
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -23993,13 +23989,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B108" t="s">
         <v>840</v>
       </c>
       <c r="C108" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D108" t="s">
         <v>1743</v>
@@ -24007,13 +24003,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="B109" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="C109" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D109" t="s">
         <v>1034</v>
@@ -24021,13 +24017,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="B110" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="C110" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D110" t="s">
         <v>1035</v>
@@ -24136,7 +24132,7 @@
         <v>1519</v>
       </c>
       <c r="B118" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
@@ -24259,13 +24255,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B127" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="C127" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D127" t="s">
         <v>1753</v>
@@ -24282,7 +24278,7 @@
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -24338,7 +24334,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -24380,18 +24376,18 @@
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="B136" t="s">
         <v>1845</v>
       </c>
       <c r="C136" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D136" t="s">
         <v>1759</v>
@@ -24436,7 +24432,7 @@
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -24483,13 +24479,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B143" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="C143" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D143" t="s">
         <v>1079</v>
@@ -24730,7 +24726,7 @@
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -24744,7 +24740,7 @@
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -24833,13 +24829,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="B168" t="s">
         <v>872</v>
       </c>
       <c r="C168" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D168" t="s">
         <v>1114</v>
@@ -24889,13 +24885,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="B172" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="C172" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D172" t="s">
         <v>1777</v>
@@ -24912,7 +24908,7 @@
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -24940,7 +24936,7 @@
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -25001,13 +24997,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="B180" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C180" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D180" t="s">
         <v>1783</v>
@@ -25057,13 +25053,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="B184" t="s">
         <v>798</v>
       </c>
       <c r="C184" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D184" t="s">
         <v>1787</v>
@@ -25085,7 +25081,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="B186" t="s">
         <v>1674</v>
@@ -25108,7 +25104,7 @@
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -25326,13 +25322,13 @@
         <v>1415</v>
       </c>
       <c r="B203" t="s">
-        <v>1677</v>
+        <v>2219</v>
       </c>
       <c r="C203" t="s">
-        <v>499</v>
+        <v>2199</v>
       </c>
       <c r="D203" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -25360,7 +25356,7 @@
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -25379,13 +25375,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B207" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C207" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D207" t="s">
         <v>1803</v>
@@ -25410,10 +25406,10 @@
         <v>1580</v>
       </c>
       <c r="B209" t="s">
-        <v>1682</v>
+        <v>2220</v>
       </c>
       <c r="C209" t="s">
-        <v>499</v>
+        <v>2199</v>
       </c>
       <c r="D209" t="s">
         <v>1805</v>
@@ -25491,13 +25487,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="B215" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="C215" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D215" t="s">
         <v>1810</v>
@@ -25542,18 +25538,18 @@
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B219" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="C219" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D219" t="s">
         <v>1813</v>
@@ -25575,13 +25571,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B221" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C221" t="s">
         <v>2199</v>
-      </c>
-      <c r="C221" t="s">
-        <v>2205</v>
       </c>
       <c r="D221" t="s">
         <v>1815</v>
@@ -25592,10 +25588,10 @@
         <v>1590</v>
       </c>
       <c r="B222" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="C222" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D222" t="s">
         <v>1816</v>
@@ -25626,7 +25622,7 @@
         <v>499</v>
       </c>
       <c r="D224" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -25667,8 +25663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336613A-C3B2-492B-89D1-4E7C44615C9B}">
   <dimension ref="A1:U226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25820,7 +25816,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="U9" t="s">
         <v>499</v>
@@ -25871,7 +25867,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="U12" t="s">
         <v>499</v>
@@ -25905,7 +25901,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="U14" t="s">
         <v>499</v>
@@ -25956,7 +25952,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="U17" t="s">
         <v>499</v>
@@ -26024,7 +26020,7 @@
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="U21" t="s">
         <v>499</v>
@@ -26075,7 +26071,7 @@
         <v>704</v>
       </c>
       <c r="D24" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="U24" t="s">
         <v>704</v>
@@ -26109,7 +26105,7 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="U26" t="s">
         <v>499</v>
@@ -26160,7 +26156,7 @@
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="U29" t="s">
         <v>499</v>
@@ -26171,16 +26167,16 @@
         <v>1163</v>
       </c>
       <c r="B30" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C30" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="D30" t="s">
         <v>961</v>
       </c>
       <c r="U30" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -26324,16 +26320,16 @@
         <v>1468</v>
       </c>
       <c r="B39" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="C39" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="D39" t="s">
         <v>1709</v>
       </c>
       <c r="U39" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -26347,7 +26343,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="U40" t="s">
         <v>499</v>
@@ -26381,7 +26377,7 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="U42" t="s">
         <v>499</v>
@@ -26463,13 +26459,13 @@
         <v>1313</v>
       </c>
       <c r="C47" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="D47" t="s">
         <v>1714</v>
       </c>
       <c r="U47" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -26480,30 +26476,30 @@
         <v>1173</v>
       </c>
       <c r="C48" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="D48" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="U48" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B49" t="s">
         <v>1445</v>
       </c>
       <c r="C49" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D49" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="U49" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -26636,7 +26632,7 @@
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="U57" t="s">
         <v>499</v>
@@ -26653,7 +26649,7 @@
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="U58" t="s">
         <v>499</v>
@@ -26670,7 +26666,7 @@
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="U59" t="s">
         <v>499</v>
@@ -26704,7 +26700,7 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="U61" t="s">
         <v>499</v>
@@ -26721,7 +26717,7 @@
         <v>695</v>
       </c>
       <c r="D62" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="U62" t="s">
         <v>695</v>
@@ -26905,13 +26901,13 @@
         <v>1624</v>
       </c>
       <c r="C73" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="D73" t="s">
         <v>1726</v>
       </c>
       <c r="U73" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -26976,7 +26972,7 @@
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="U77" t="s">
         <v>499</v>
@@ -27010,7 +27006,7 @@
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="U79" t="s">
         <v>499</v>
@@ -27137,7 +27133,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="B87" t="s">
         <v>304</v>
@@ -27197,7 +27193,7 @@
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="U90" t="s">
         <v>499</v>
@@ -27256,7 +27252,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B94" t="s">
         <v>1177</v>
@@ -27273,7 +27269,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="B95" t="s">
         <v>1634</v>
@@ -27282,7 +27278,7 @@
         <v>607</v>
       </c>
       <c r="D95" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="U95" t="s">
         <v>607</v>
@@ -27350,7 +27346,7 @@
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="U99" t="s">
         <v>499</v>
@@ -27494,7 +27490,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B108" t="s">
         <v>1399</v>
@@ -27511,36 +27507,36 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="B109" t="s">
         <v>1642</v>
       </c>
       <c r="C109" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="D109" t="s">
         <v>1034</v>
       </c>
       <c r="U109" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="B110" t="s">
         <v>1643</v>
       </c>
       <c r="C110" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="D110" t="s">
         <v>1035</v>
       </c>
       <c r="U110" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -27667,7 +27663,7 @@
         <v>1519</v>
       </c>
       <c r="B118" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
@@ -27817,19 +27813,19 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B127" t="s">
         <v>1648</v>
       </c>
       <c r="C127" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="D127" t="s">
         <v>1753</v>
       </c>
       <c r="U127" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -27843,7 +27839,7 @@
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="U128" t="s">
         <v>499</v>
@@ -27911,7 +27907,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="U132" t="s">
         <v>499</v>
@@ -27962,7 +27958,7 @@
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="U135" t="s">
         <v>499</v>
@@ -27970,7 +27966,7 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="B136" t="s">
         <v>1653</v>
@@ -28030,7 +28026,7 @@
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="U139" t="s">
         <v>499</v>
@@ -28089,19 +28085,19 @@
     </row>
     <row r="143" spans="1:21">
       <c r="A143" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B143" t="s">
         <v>1657</v>
       </c>
       <c r="C143" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="D143" t="s">
         <v>1079</v>
       </c>
       <c r="U143" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -28387,7 +28383,7 @@
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="U160" t="s">
         <v>499</v>
@@ -28404,7 +28400,7 @@
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="U161" t="s">
         <v>499</v>
@@ -28514,7 +28510,7 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="B168" t="s">
         <v>434</v>
@@ -28582,19 +28578,19 @@
     </row>
     <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="B172" t="s">
         <v>1669</v>
       </c>
       <c r="C172" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="D172" t="s">
         <v>1777</v>
       </c>
       <c r="U172" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -28608,7 +28604,7 @@
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="U173" t="s">
         <v>499</v>
@@ -28642,7 +28638,7 @@
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="U175" t="s">
         <v>499</v>
@@ -28718,19 +28714,19 @@
     </row>
     <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="B180" t="s">
         <v>1670</v>
       </c>
       <c r="C180" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D180" t="s">
         <v>1783</v>
       </c>
       <c r="U180" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -28786,7 +28782,7 @@
     </row>
     <row r="184" spans="1:21">
       <c r="A184" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="B184" t="s">
         <v>351</v>
@@ -28820,7 +28816,7 @@
     </row>
     <row r="186" spans="1:21">
       <c r="A186" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="B186" t="s">
         <v>1674</v>
@@ -28846,7 +28842,7 @@
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="U187" t="s">
         <v>499</v>
@@ -29118,10 +29114,10 @@
         <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="U203" t="s">
-        <v>499</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -29152,7 +29148,7 @@
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="U205" t="s">
         <v>499</v>
@@ -29177,19 +29173,19 @@
     </row>
     <row r="207" spans="1:21">
       <c r="A207" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B207" t="s">
         <v>1680</v>
       </c>
       <c r="C207" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D207" t="s">
         <v>1803</v>
       </c>
       <c r="U207" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -29223,7 +29219,7 @@
         <v>1805</v>
       </c>
       <c r="U209" t="s">
-        <v>499</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -29313,19 +29309,19 @@
     </row>
     <row r="215" spans="1:21">
       <c r="A215" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="B215" t="s">
         <v>1684</v>
       </c>
       <c r="C215" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="D215" t="s">
         <v>1810</v>
       </c>
       <c r="U215" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -29373,7 +29369,7 @@
         <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="U218" t="s">
         <v>499</v>
@@ -29381,19 +29377,19 @@
     </row>
     <row r="219" spans="1:21">
       <c r="A219" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B219" t="s">
         <v>1685</v>
       </c>
       <c r="C219" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="D219" t="s">
         <v>1813</v>
       </c>
       <c r="U219" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -29415,19 +29411,19 @@
     </row>
     <row r="221" spans="1:21">
       <c r="A221" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B221" t="s">
         <v>1687</v>
       </c>
       <c r="C221" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="D221" t="s">
         <v>1815</v>
       </c>
       <c r="U221" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="222" spans="1:21">
@@ -29438,13 +29434,13 @@
         <v>1688</v>
       </c>
       <c r="C222" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="D222" t="s">
         <v>1816</v>
       </c>
       <c r="U222" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="223" spans="1:21">
@@ -29475,7 +29471,7 @@
         <v>499</v>
       </c>
       <c r="D224" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="U224" t="s">
         <v>499</v>
@@ -29526,8 +29522,8 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32608,16 +32604,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="B1" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="C1" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="D1" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -32631,7 +32627,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
@@ -32645,8 +32641,8 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -32931,7 +32927,7 @@
         <v>796</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>1869</v>
+        <v>794</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>782</v>
@@ -32941,13 +32937,13 @@
         <v>872</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="K8" s="62" t="s">
         <v>567</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="M8" s="62" t="s">
         <v>790</v>
@@ -32957,13 +32953,13 @@
         <v>778</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="Q8" s="62" t="s">
         <v>567</v>
       </c>
       <c r="R8" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="71"/>
@@ -32979,7 +32975,7 @@
       <c r="E9" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="76" t="s">
         <v>217</v>
       </c>
       <c r="G9" s="63" t="s">
@@ -33031,39 +33027,39 @@
         <v>1868</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>1870</v>
+        <v>2218</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="H10" s="64"/>
       <c r="I10" s="64" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>1872</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>1874</v>
-      </c>
       <c r="K10" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L10" s="64" t="s">
         <v>1875</v>
       </c>
-      <c r="L10" s="64" t="s">
-        <v>1877</v>
-      </c>
       <c r="M10" s="64" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="N10" s="64"/>
       <c r="O10" s="64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="P10" s="64" t="s">
         <v>1879</v>
       </c>
-      <c r="P10" s="64" t="s">
-        <v>1881</v>
-      </c>
       <c r="Q10" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="R10" s="64" t="s">
         <v>1875</v>
-      </c>
-      <c r="R10" s="64" t="s">
-        <v>1877</v>
       </c>
       <c r="S10" s="31"/>
       <c r="V10" s="71"/>
@@ -33102,10 +33098,10 @@
         <v>567</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="J12" s="62" t="s">
         <v>768</v>
@@ -33121,13 +33117,13 @@
         <v>567</v>
       </c>
       <c r="O12" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="P12" s="62" t="s">
         <v>704</v>
       </c>
       <c r="Q12" s="62" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="R12" s="62"/>
       <c r="S12" s="19"/>
@@ -33189,42 +33185,42 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="64" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>1883</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>1877</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>1885</v>
-      </c>
       <c r="J14" s="64" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="K14" s="64"/>
       <c r="L14" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="M14" s="64" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>1875</v>
+      </c>
+      <c r="P14" s="64" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q14" s="64" t="s">
         <v>1887</v>
-      </c>
-      <c r="N14" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="O14" s="64" t="s">
-        <v>1877</v>
-      </c>
-      <c r="P14" s="64" t="s">
-        <v>2221</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>1889</v>
       </c>
       <c r="R14" s="64"/>
       <c r="S14" s="31"/>
@@ -33268,35 +33264,35 @@
         <v>872</v>
       </c>
       <c r="H16" s="62" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>1850</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="L16" s="62" t="s">
         <v>601</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="N16" s="62"/>
       <c r="O16" s="62" t="s">
         <v>778</v>
       </c>
       <c r="P16" s="62" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="Q16" s="62" t="s">
         <v>872</v>
       </c>
       <c r="R16" s="62" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S16" s="19"/>
       <c r="V16" s="71"/>
@@ -33357,47 +33353,47 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="64" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>1844</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>1851</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="M18" s="64" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="N18" s="64"/>
       <c r="O18" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="P18" s="64" t="s">
+        <v>1893</v>
+      </c>
+      <c r="Q18" s="64" t="s">
+        <v>1870</v>
+      </c>
+      <c r="R18" s="64" t="s">
         <v>1895</v>
-      </c>
-      <c r="Q18" s="64" t="s">
-        <v>1872</v>
-      </c>
-      <c r="R18" s="64" t="s">
-        <v>1897</v>
       </c>
       <c r="S18" s="31"/>
       <c r="V18" s="71"/>
@@ -33434,10 +33430,10 @@
         <v>704</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H20" s="62" t="s">
         <v>601</v>
@@ -33447,7 +33443,7 @@
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="62" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="L20" s="62" t="s">
         <v>567</v>
@@ -33459,10 +33455,10 @@
         <v>601</v>
       </c>
       <c r="O20" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="P20" s="62" t="s">
         <v>1901</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>1903</v>
       </c>
       <c r="Q20" s="62" t="s">
         <v>1850</v>
@@ -33530,38 +33526,38 @@
         <v>1852</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="I22" s="64" t="s">
         <v>1846</v>
       </c>
       <c r="J22" s="64"/>
       <c r="K22" s="64" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="M22" s="64" t="s">
         <v>1859</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O22" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="P22" s="64" t="s">
         <v>1902</v>
-      </c>
-      <c r="P22" s="64" t="s">
-        <v>1904</v>
       </c>
       <c r="Q22" s="64" t="s">
         <v>1852</v>
@@ -33594,7 +33590,7 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="62" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>1858</v>
@@ -33603,13 +33599,13 @@
         <v>601</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="H24" s="62" t="s">
         <v>529</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="J24" s="62" t="s">
         <v>782</v>
@@ -33625,7 +33621,7 @@
         <v>601</v>
       </c>
       <c r="O24" s="62" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="P24" s="62" t="s">
         <v>665</v>
@@ -33693,45 +33689,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="64" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="E26" s="64" t="s">
         <v>1859</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="H26" s="64" t="s">
+        <v>1903</v>
+      </c>
+      <c r="I26" s="64" t="s">
         <v>1905</v>
       </c>
-      <c r="I26" s="64" t="s">
-        <v>1907</v>
-      </c>
       <c r="J26" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="K26" s="64"/>
       <c r="L26" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="M26" s="64" t="s">
         <v>1846</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O26" s="64" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="P26" s="64" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="Q26" s="64"/>
       <c r="R26" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="S26" s="31"/>
       <c r="V26" s="71"/>
@@ -33766,28 +33762,28 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="62" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>1850</v>
       </c>
       <c r="F28" s="62" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G28" s="62" t="s">
         <v>1912</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>1914</v>
       </c>
       <c r="H28" s="62" t="s">
         <v>601</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="J28" s="62" t="s">
         <v>704</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="L28" s="62" t="s">
         <v>782</v>
@@ -33797,10 +33793,10 @@
         <v>796</v>
       </c>
       <c r="O28" s="62" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="P28" s="62" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
@@ -33873,41 +33869,41 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="64" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="F30" s="64" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G30" s="64" t="s">
         <v>1913</v>
       </c>
-      <c r="G30" s="64" t="s">
-        <v>1915</v>
-      </c>
       <c r="H30" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="J30" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="K30" s="64" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="M30" s="64"/>
       <c r="N30" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="O30" s="64" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="P30" s="64" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="Q30" s="64"/>
       <c r="R30" s="64"/>
@@ -33946,29 +33942,29 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="62" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="F32" s="62" t="s">
         <v>601</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="H32" s="62"/>
       <c r="I32" s="62" t="s">
         <v>778</v>
       </c>
       <c r="J32" s="62" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K32" s="62" t="s">
         <v>1920</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="L32" s="62" t="s">
         <v>1922</v>
-      </c>
-      <c r="L32" s="62" t="s">
-        <v>1924</v>
       </c>
       <c r="M32" s="62" t="s">
         <v>695</v>
@@ -33981,7 +33977,7 @@
         <v>796</v>
       </c>
       <c r="Q32" s="62" t="s">
-        <v>1869</v>
+        <v>794</v>
       </c>
       <c r="R32" s="62"/>
       <c r="S32" s="19"/>
@@ -34035,7 +34031,7 @@
       <c r="P33" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="63" t="s">
+      <c r="Q33" s="76" t="s">
         <v>217</v>
       </c>
       <c r="R33" s="63" t="s">
@@ -34047,42 +34043,42 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="64" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="E34" s="64" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G34" s="64" t="s">
         <v>1917</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>1919</v>
       </c>
       <c r="H34" s="64"/>
       <c r="I34" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="J34" s="64" t="s">
+        <v>1919</v>
+      </c>
+      <c r="K34" s="64" t="s">
         <v>1921</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="L34" s="64" t="s">
         <v>1923</v>
       </c>
-      <c r="L34" s="64" t="s">
-        <v>1925</v>
-      </c>
       <c r="M34" s="64" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="N34" s="64"/>
       <c r="O34" s="64" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="P34" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="Q34" s="64" t="s">
-        <v>1870</v>
+        <v>2218</v>
       </c>
       <c r="R34" s="64"/>
       <c r="S34" s="31"/>
@@ -34127,13 +34123,13 @@
         <v>880</v>
       </c>
       <c r="I36" s="62" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J36" s="62" t="s">
         <v>601</v>
       </c>
       <c r="K36" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="L36" s="62"/>
       <c r="M36" s="62" t="s">
@@ -34143,7 +34139,7 @@
         <v>695</v>
       </c>
       <c r="O36" s="62" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="P36" s="62" t="s">
         <v>695</v>
@@ -34152,7 +34148,7 @@
         <v>601</v>
       </c>
       <c r="R36" s="62" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="S36" s="19"/>
       <c r="V36" s="71"/>
@@ -34213,47 +34209,47 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="G38" s="64" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K38" s="64" t="s">
         <v>1929</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>1887</v>
-      </c>
-      <c r="I38" s="64" t="s">
-        <v>1904</v>
-      </c>
-      <c r="J38" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="K38" s="64" t="s">
-        <v>1931</v>
       </c>
       <c r="L38" s="64"/>
       <c r="M38" s="64" t="s">
+        <v>1930</v>
+      </c>
+      <c r="N38" s="64" t="s">
+        <v>1924</v>
+      </c>
+      <c r="O38" s="64" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P38" s="64" t="s">
+        <v>1924</v>
+      </c>
+      <c r="Q38" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R38" s="64" t="s">
         <v>1932</v>
-      </c>
-      <c r="N38" s="64" t="s">
-        <v>1926</v>
-      </c>
-      <c r="O38" s="64" t="s">
-        <v>1925</v>
-      </c>
-      <c r="P38" s="64" t="s">
-        <v>1926</v>
-      </c>
-      <c r="Q38" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="R38" s="64" t="s">
-        <v>1934</v>
       </c>
       <c r="S38" s="31"/>
       <c r="V38" s="71"/>
@@ -34282,17 +34278,17 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="62" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="E40" s="62"/>
       <c r="F40" s="62" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="G40" s="62" t="s">
         <v>708</v>
       </c>
       <c r="H40" s="62" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="I40" s="62" t="s">
         <v>778</v>
@@ -34304,7 +34300,7 @@
         <v>531</v>
       </c>
       <c r="L40" s="62" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62" t="s">
@@ -34317,10 +34313,10 @@
         <v>880</v>
       </c>
       <c r="Q40" s="62" t="s">
+        <v>1942</v>
+      </c>
+      <c r="R40" s="62" t="s">
         <v>1944</v>
-      </c>
-      <c r="R40" s="62" t="s">
-        <v>1946</v>
       </c>
       <c r="S40" s="19"/>
       <c r="V40" s="71"/>
@@ -34381,45 +34377,45 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="64" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="G42" s="64" t="s">
         <v>1863</v>
       </c>
       <c r="H42" s="64" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="J42" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="K42" s="64" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L42" s="64" t="s">
         <v>1941</v>
-      </c>
-      <c r="L42" s="64" t="s">
-        <v>1943</v>
       </c>
       <c r="M42" s="64"/>
       <c r="N42" s="64" t="s">
         <v>1863</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="P42" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="Q42" s="64" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R42" s="64" t="s">
         <v>1945</v>
-      </c>
-      <c r="R42" s="64" t="s">
-        <v>1947</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="71"/>
@@ -34448,16 +34444,16 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E44" s="62" t="s">
         <v>704</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="G44" s="62" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="H44" s="62"/>
       <c r="I44" s="62" t="s">
@@ -34470,16 +34466,16 @@
         <v>601</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="M44" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="N44" s="62" t="s">
         <v>597</v>
       </c>
       <c r="O44" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="P44" s="62" t="s">
         <v>525</v>
@@ -34547,45 +34543,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="H46" s="64"/>
       <c r="I46" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="J46" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="K46" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="M46" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="N46" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="P46" s="64" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="Q46" s="64"/>
       <c r="R46" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="71"/>
@@ -34617,28 +34613,28 @@
         <v>704</v>
       </c>
       <c r="E48" s="62" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F48" s="62" t="s">
         <v>1953</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="G48" s="62" t="s">
         <v>1955</v>
       </c>
-      <c r="G48" s="62" t="s">
-        <v>1957</v>
-      </c>
       <c r="H48" s="62" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="I48" s="62" t="s">
         <v>1848</v>
       </c>
       <c r="J48" s="62" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="K48" s="62" t="s">
         <v>601</v>
       </c>
       <c r="L48" s="62" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="M48" s="62" t="s">
         <v>605</v>
@@ -34648,13 +34644,13 @@
         <v>778</v>
       </c>
       <c r="P48" s="62" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="Q48" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="R48" s="62" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S48" s="19"/>
       <c r="V48" s="71"/>
@@ -34715,47 +34711,47 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="E50" s="64" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F50" s="64" t="s">
         <v>1954</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="G50" s="64" t="s">
         <v>1956</v>
       </c>
-      <c r="G50" s="64" t="s">
-        <v>1958</v>
-      </c>
       <c r="H50" s="64" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="I50" s="64" t="s">
         <v>1849</v>
       </c>
       <c r="J50" s="64" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K50" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="L50" s="64" t="s">
         <v>1960</v>
       </c>
-      <c r="K50" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="L50" s="64" t="s">
-        <v>1962</v>
-      </c>
       <c r="M50" s="64" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="N50" s="64"/>
       <c r="O50" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="P50" s="64" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="Q50" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="R50" s="64" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="S50" s="31"/>
       <c r="V50" s="71"/>
@@ -34789,29 +34785,29 @@
         <v>601</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="F52" s="62" t="s">
         <v>653</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="62" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="I52" s="62" t="s">
         <v>517</v>
       </c>
       <c r="J52" s="62" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="K52" s="62" t="s">
         <v>601</v>
       </c>
       <c r="L52" s="62" t="s">
+        <v>1968</v>
+      </c>
+      <c r="M52" s="62" t="s">
         <v>1970</v>
-      </c>
-      <c r="M52" s="62" t="s">
-        <v>1972</v>
       </c>
       <c r="N52" s="62"/>
       <c r="O52" s="62" t="s">
@@ -34824,7 +34820,7 @@
         <v>655</v>
       </c>
       <c r="R52" s="62" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="S52" s="19"/>
       <c r="V52" s="71"/>
@@ -34885,45 +34881,45 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
       <c r="D54" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E54" s="64" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="F54" s="64" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="G54" s="64"/>
       <c r="H54" s="64" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="I54" s="64" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J54" s="64" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K54" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="L54" s="64" t="s">
         <v>1969</v>
       </c>
-      <c r="J54" s="64" t="s">
-        <v>1917</v>
-      </c>
-      <c r="K54" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="L54" s="64" t="s">
+      <c r="M54" s="64" t="s">
         <v>1971</v>
-      </c>
-      <c r="M54" s="64" t="s">
-        <v>1973</v>
       </c>
       <c r="N54" s="64"/>
       <c r="O54" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="P54" s="64" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="Q54" s="64" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="R54" s="64" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="S54" s="31"/>
       <c r="V54" s="71"/>
@@ -34955,7 +34951,7 @@
         <v>512</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F56" s="62" t="s">
         <v>778</v>
@@ -34964,7 +34960,7 @@
         <v>880</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="I56" s="62" t="s">
         <v>695</v>
@@ -34986,11 +34982,11 @@
         <v>601</v>
       </c>
       <c r="P56" s="62" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="Q56" s="62"/>
       <c r="R56" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="S56" s="19"/>
       <c r="V56" s="71"/>
@@ -35051,45 +35047,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="64" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E58" s="64" t="s">
         <v>1978</v>
       </c>
-      <c r="E58" s="64" t="s">
-        <v>1980</v>
-      </c>
       <c r="F58" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="H58" s="64" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="J58" s="64"/>
       <c r="K58" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="M58" s="64" t="s">
         <v>1843</v>
       </c>
       <c r="N58" s="64" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P58" s="64" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="Q58" s="64"/>
       <c r="R58" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="71"/>
@@ -35121,10 +35117,10 @@
         <v>597</v>
       </c>
       <c r="E60" s="62" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F60" s="62" t="s">
         <v>1983</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>1985</v>
       </c>
       <c r="G60" s="62" t="s">
         <v>778</v>
@@ -35133,14 +35129,14 @@
         <v>635</v>
       </c>
       <c r="I60" s="62" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="J60" s="62"/>
       <c r="K60" s="62" t="s">
         <v>778</v>
       </c>
       <c r="L60" s="62" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="M60" s="62" t="s">
         <v>760</v>
@@ -35149,16 +35145,16 @@
         <v>535</v>
       </c>
       <c r="O60" s="62" t="s">
+        <v>1990</v>
+      </c>
+      <c r="P60" s="62" t="s">
         <v>1992</v>
-      </c>
-      <c r="P60" s="62" t="s">
-        <v>1994</v>
       </c>
       <c r="Q60" s="62" t="s">
         <v>601</v>
       </c>
       <c r="R60" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="S60" s="19"/>
       <c r="V60" s="71"/>
@@ -35219,47 +35215,47 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="E62" s="64" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F62" s="64" t="s">
         <v>1984</v>
       </c>
-      <c r="F62" s="64" t="s">
-        <v>1986</v>
-      </c>
       <c r="G62" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H62" s="64" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J62" s="64"/>
       <c r="K62" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="L62" s="64" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M62" s="64" t="s">
+        <v>1988</v>
+      </c>
+      <c r="N62" s="64" t="s">
         <v>1989</v>
       </c>
-      <c r="M62" s="64" t="s">
-        <v>1990</v>
-      </c>
-      <c r="N62" s="64" t="s">
+      <c r="O62" s="64" t="s">
         <v>1991</v>
       </c>
-      <c r="O62" s="64" t="s">
+      <c r="P62" s="64" t="s">
         <v>1993</v>
       </c>
-      <c r="P62" s="64" t="s">
+      <c r="Q62" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R62" s="64" t="s">
         <v>1995</v>
-      </c>
-      <c r="Q62" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="R62" s="64" t="s">
-        <v>1997</v>
       </c>
       <c r="S62" s="31"/>
       <c r="V62" s="71"/>
@@ -35289,11 +35285,11 @@
       <c r="B64" s="17"/>
       <c r="D64" s="62"/>
       <c r="E64" s="62" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F64" s="62"/>
       <c r="G64" s="62" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="H64" s="62" t="s">
         <v>597</v>
@@ -35303,13 +35299,13 @@
       </c>
       <c r="J64" s="62"/>
       <c r="K64" s="62" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="L64" s="62" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="M64" s="62" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="N64" s="62" t="s">
         <v>601</v>
@@ -35318,13 +35314,13 @@
         <v>778</v>
       </c>
       <c r="P64" s="62" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="Q64" s="62" t="s">
         <v>567</v>
       </c>
       <c r="R64" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="S64" s="19"/>
       <c r="V64" s="71"/>
@@ -35386,42 +35382,42 @@
       <c r="B66" s="22"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F66" s="64"/>
       <c r="G66" s="64" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H66" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="I66" s="64" t="s">
         <v>1844</v>
       </c>
       <c r="J66" s="64"/>
       <c r="K66" s="64" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="M66" s="64" t="s">
+        <v>2001</v>
+      </c>
+      <c r="N66" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="O66" s="64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="P66" s="64" t="s">
         <v>2003</v>
       </c>
-      <c r="N66" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="O66" s="64" t="s">
-        <v>1879</v>
-      </c>
-      <c r="P66" s="64" t="s">
-        <v>2005</v>
-      </c>
       <c r="Q66" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="R66" s="64" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="S66" s="31"/>
       <c r="V66" s="71"/>
@@ -35470,19 +35466,19 @@
         <v>778</v>
       </c>
       <c r="L68" s="62" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M68" s="62" t="s">
         <v>2006</v>
       </c>
-      <c r="M68" s="62" t="s">
-        <v>2008</v>
-      </c>
       <c r="N68" s="62" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="O68" s="62" t="s">
         <v>852</v>
       </c>
       <c r="P68" s="62" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="Q68" s="62" t="s">
         <v>1854</v>
@@ -35548,38 +35544,38 @@
       <c r="B70" s="22"/>
       <c r="D70" s="64"/>
       <c r="E70" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F70" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G70" s="64" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="H70" s="64" t="s">
         <v>1846</v>
       </c>
       <c r="I70" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="J70" s="64"/>
       <c r="K70" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="L70" s="64" t="s">
+        <v>2005</v>
+      </c>
+      <c r="M70" s="64" t="s">
         <v>2007</v>
       </c>
-      <c r="M70" s="64" t="s">
-        <v>2009</v>
-      </c>
       <c r="N70" s="64" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="P70" s="64" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="Q70" s="64" t="s">
         <v>1855</v>
@@ -35615,7 +35611,7 @@
         <v>798</v>
       </c>
       <c r="E72" s="62" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F72" s="62" t="s">
         <v>601</v>
@@ -35624,15 +35620,15 @@
         <v>517</v>
       </c>
       <c r="H72" s="62" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I72" s="62"/>
       <c r="J72" s="62" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="K72" s="62"/>
       <c r="L72" s="62" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="M72" s="62" t="s">
         <v>601</v>
@@ -35641,7 +35637,7 @@
         <v>517</v>
       </c>
       <c r="O72" s="62" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="P72" s="62"/>
       <c r="Q72" s="62" t="s">
@@ -35712,40 +35708,40 @@
         <v>1847</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F74" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G74" s="64" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="H74" s="64" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I74" s="64"/>
       <c r="J74" s="64" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K74" s="64"/>
       <c r="L74" s="64" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M74" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="N74" s="64" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O74" s="64" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="P74" s="64"/>
       <c r="Q74" s="64" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="R74" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S74" s="31"/>
       <c r="V74" s="71"/>
@@ -35777,7 +35773,7 @@
         <v>517</v>
       </c>
       <c r="E76" s="62" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F76" s="62"/>
       <c r="G76" s="62" t="s">
@@ -35790,13 +35786,13 @@
         <v>567</v>
       </c>
       <c r="J76" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="K76" s="62" t="s">
         <v>814</v>
       </c>
       <c r="L76" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="M76" s="62" t="s">
         <v>778</v>
@@ -35873,45 +35869,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="64" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="E78" s="64" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F78" s="64"/>
       <c r="G78" s="64" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H78" s="64" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="I78" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J78" s="64" t="s">
         <v>1875</v>
       </c>
-      <c r="J78" s="64" t="s">
+      <c r="K78" s="64" t="s">
+        <v>2017</v>
+      </c>
+      <c r="L78" s="64" t="s">
+        <v>1929</v>
+      </c>
+      <c r="M78" s="64" t="s">
         <v>1877</v>
       </c>
-      <c r="K78" s="64" t="s">
-        <v>2019</v>
-      </c>
-      <c r="L78" s="64" t="s">
-        <v>1931</v>
-      </c>
-      <c r="M78" s="64" t="s">
-        <v>1879</v>
-      </c>
       <c r="N78" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="O78" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P78" s="64" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="Q78" s="64"/>
       <c r="R78" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="S78" s="31"/>
       <c r="V78" s="71"/>
@@ -35942,23 +35938,23 @@
         <v>567</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F80" s="62" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62" t="s">
         <v>856</v>
       </c>
       <c r="I80" s="62" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="J80" s="62" t="s">
         <v>567</v>
       </c>
       <c r="K80" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="L80" s="62" t="s">
         <v>663</v>
@@ -35967,7 +35963,7 @@
         <v>601</v>
       </c>
       <c r="N80" s="62" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="O80" s="62"/>
       <c r="P80" s="62"/>
@@ -36030,35 +36026,35 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="G82" s="64"/>
       <c r="H82" s="64" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="I82" s="64" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="J82" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K82" s="64" t="s">
         <v>1875</v>
       </c>
-      <c r="K82" s="64" t="s">
-        <v>1877</v>
-      </c>
       <c r="L82" s="64" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="M82" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="N82" s="64" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="O82" s="64"/>
       <c r="P82" s="64"/>
@@ -36096,16 +36092,16 @@
         <v>888</v>
       </c>
       <c r="E84" s="62" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F84" s="62" t="s">
         <v>2021</v>
-      </c>
-      <c r="F84" s="62" t="s">
-        <v>2023</v>
       </c>
       <c r="G84" s="62" t="s">
         <v>595</v>
       </c>
       <c r="H84" s="62" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I84" s="62" t="s">
         <v>896</v>
@@ -36114,7 +36110,7 @@
         <v>601</v>
       </c>
       <c r="K84" s="62" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="L84" s="62" t="s">
         <v>567</v>
@@ -36123,7 +36119,7 @@
         <v>519</v>
       </c>
       <c r="N84" s="62" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="O84" s="62"/>
       <c r="P84" s="62" t="s">
@@ -36197,41 +36193,41 @@
         <v>1843</v>
       </c>
       <c r="E86" s="64" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F86" s="64" t="s">
         <v>2022</v>
       </c>
-      <c r="F86" s="64" t="s">
-        <v>2024</v>
-      </c>
       <c r="G86" s="64" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H86" s="64" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I86" s="64" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J86" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K86" s="64" t="s">
         <v>2025</v>
       </c>
-      <c r="H86" s="64" t="s">
-        <v>1999</v>
-      </c>
-      <c r="I86" s="64" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J86" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="K86" s="64" t="s">
+      <c r="L86" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="M86" s="64" t="s">
+        <v>2204</v>
+      </c>
+      <c r="N86" s="64" t="s">
         <v>2027</v>
-      </c>
-      <c r="L86" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="M86" s="64" t="s">
-        <v>2210</v>
-      </c>
-      <c r="N86" s="64" t="s">
-        <v>2029</v>
       </c>
       <c r="O86" s="64"/>
       <c r="P86" s="64" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="Q86" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="R86" s="64" t="s">
         <v>1852</v>
@@ -36263,7 +36259,7 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="62" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>1845</v>
@@ -36278,7 +36274,7 @@
         <v>778</v>
       </c>
       <c r="I88" s="62" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="J88" s="62" t="s">
         <v>601</v>
@@ -36288,7 +36284,7 @@
         <v>778</v>
       </c>
       <c r="M88" s="62" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="N88" s="62" t="s">
         <v>896</v>
@@ -36303,7 +36299,7 @@
         <v>567</v>
       </c>
       <c r="R88" s="62" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="S88" s="19"/>
       <c r="V88" s="7"/>
@@ -36364,47 +36360,47 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="64" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E90" s="64" t="s">
         <v>1846</v>
       </c>
       <c r="F90" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G90" s="64" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H90" s="64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I90" s="64" t="s">
         <v>2036</v>
       </c>
-      <c r="H90" s="64" t="s">
-        <v>1879</v>
-      </c>
-      <c r="I90" s="64" t="s">
-        <v>2038</v>
-      </c>
       <c r="J90" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K90" s="64"/>
       <c r="L90" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="M90" s="64" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="N90" s="64" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="O90" s="64" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P90" s="64" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Q90" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="R90" s="64" t="s">
         <v>2039</v>
-      </c>
-      <c r="P90" s="64" t="s">
-        <v>1976</v>
-      </c>
-      <c r="Q90" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="R90" s="64" t="s">
-        <v>2041</v>
       </c>
       <c r="S90" s="31"/>
       <c r="V90" s="7"/>
@@ -36433,7 +36429,7 @@
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
       <c r="D92" s="62" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E92" s="62" t="s">
         <v>778</v>
@@ -36442,23 +36438,23 @@
         <v>704</v>
       </c>
       <c r="G92" s="62" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="H92" s="62"/>
       <c r="I92" s="62" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J92" s="62" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K92" s="62" t="s">
         <v>2044</v>
       </c>
-      <c r="J92" s="62" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K92" s="62" t="s">
+      <c r="L92" s="62" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M92" s="62" t="s">
         <v>2046</v>
-      </c>
-      <c r="L92" s="62" t="s">
-        <v>1939</v>
-      </c>
-      <c r="M92" s="62" t="s">
-        <v>2048</v>
       </c>
       <c r="N92" s="62" t="s">
         <v>655</v>
@@ -36467,13 +36463,13 @@
         <v>708</v>
       </c>
       <c r="P92" s="62" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="Q92" s="62" t="s">
         <v>601</v>
       </c>
       <c r="R92" s="62" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="S92" s="19"/>
       <c r="V92" s="7"/>
@@ -36534,47 +36530,47 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="64" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="E94" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F94" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="G94" s="64" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="H94" s="64"/>
       <c r="I94" s="64" t="s">
+        <v>2043</v>
+      </c>
+      <c r="J94" s="64" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K94" s="64" t="s">
         <v>2045</v>
       </c>
-      <c r="J94" s="64" t="s">
-        <v>2022</v>
-      </c>
-      <c r="K94" s="64" t="s">
+      <c r="L94" s="64" t="s">
+        <v>1938</v>
+      </c>
+      <c r="M94" s="64" t="s">
         <v>2047</v>
       </c>
-      <c r="L94" s="64" t="s">
-        <v>1940</v>
-      </c>
-      <c r="M94" s="64" t="s">
-        <v>2049</v>
-      </c>
       <c r="N94" s="64" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="O94" s="64" t="s">
         <v>1863</v>
       </c>
       <c r="P94" s="64" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="Q94" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="R94" s="64" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="S94" s="31"/>
       <c r="V94" s="7"/>
@@ -36616,26 +36612,26 @@
       </c>
       <c r="H96" s="62"/>
       <c r="I96" s="62" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="J96" s="62" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="K96" s="62" t="s">
         <v>567</v>
       </c>
       <c r="L96" s="62" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="M96" s="62" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="N96" s="62"/>
       <c r="O96" s="62" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="P96" s="62" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="Q96" s="62" t="s">
         <v>697</v>
@@ -36702,45 +36698,45 @@
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="22"/>
       <c r="D98" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="E98" s="64" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F98" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="G98" s="64" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="H98" s="64"/>
       <c r="I98" s="64" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J98" s="64" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K98" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L98" s="64" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M98" s="64" t="s">
         <v>2054</v>
-      </c>
-      <c r="J98" s="64" t="s">
-        <v>2003</v>
-      </c>
-      <c r="K98" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="L98" s="64" t="s">
-        <v>1945</v>
-      </c>
-      <c r="M98" s="64" t="s">
-        <v>2056</v>
       </c>
       <c r="N98" s="64"/>
       <c r="O98" s="64" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="P98" s="64" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="Q98" s="64" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="R98" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="S98" s="31"/>
       <c r="V98" s="7"/>
@@ -36784,19 +36780,19 @@
         <v>704</v>
       </c>
       <c r="I100" s="62" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="J100" s="62" t="s">
         <v>519</v>
       </c>
       <c r="K100" s="62" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="L100" s="62" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="M100" s="62" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="N100" s="62" t="s">
         <v>1850</v>
@@ -36805,7 +36801,7 @@
         <v>852</v>
       </c>
       <c r="P100" s="62" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="Q100" s="62"/>
       <c r="R100" s="62" t="s">
@@ -36870,45 +36866,45 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="64" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E102" s="64" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F102" s="64"/>
       <c r="G102" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="I102" s="64" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J102" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="K102" s="64" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="L102" s="64" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="M102" s="64" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="N102" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="O102" s="64" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="P102" s="64" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="Q102" s="64"/>
       <c r="R102" s="64" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="S102" s="31"/>
       <c r="V102" s="7"/>
@@ -36949,7 +36945,7 @@
         <v>756</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="I104" s="62" t="s">
         <v>541</v>
@@ -36958,23 +36954,23 @@
         <v>601</v>
       </c>
       <c r="K104" s="62" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="L104" s="62"/>
       <c r="M104" s="62" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="N104" s="62" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="O104" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="P104" s="62" t="s">
         <v>601</v>
       </c>
       <c r="Q104" s="62" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="R104" s="62"/>
       <c r="S104" s="19"/>
@@ -37036,44 +37032,44 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E106" s="64" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F106" s="64" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G106" s="64" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H106" s="64" t="s">
         <v>1908</v>
       </c>
-      <c r="F106" s="64" t="s">
-        <v>2020</v>
-      </c>
-      <c r="G106" s="64" t="s">
-        <v>2067</v>
-      </c>
-      <c r="H106" s="64" t="s">
-        <v>1910</v>
-      </c>
       <c r="I106" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="J106" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K106" s="64" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="L106" s="64"/>
       <c r="M106" s="64" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N106" s="64" t="s">
+        <v>2217</v>
+      </c>
+      <c r="O106" s="64" t="s">
+        <v>1917</v>
+      </c>
+      <c r="P106" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Q106" s="64" t="s">
         <v>2069</v>
-      </c>
-      <c r="N106" s="64" t="s">
-        <v>2223</v>
-      </c>
-      <c r="O106" s="64" t="s">
-        <v>1919</v>
-      </c>
-      <c r="P106" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="Q106" s="64" t="s">
-        <v>2071</v>
       </c>
       <c r="R106" s="64"/>
       <c r="S106" s="31"/>
@@ -37111,16 +37107,16 @@
         <v>1850</v>
       </c>
       <c r="F108" s="62" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G108" s="62" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H108" s="62" t="s">
         <v>2072</v>
       </c>
-      <c r="G108" s="62" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H108" s="62" t="s">
-        <v>2074</v>
-      </c>
       <c r="I108" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="J108" s="62" t="s">
         <v>601</v>
@@ -37206,47 +37202,47 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E110" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="F110" s="64" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G110" s="64" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H110" s="64" t="s">
         <v>2073</v>
       </c>
-      <c r="G110" s="64" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H110" s="64" t="s">
-        <v>2075</v>
-      </c>
       <c r="I110" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="J110" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K110" s="64" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="L110" s="64"/>
       <c r="M110" s="64" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="N110" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O110" s="64" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="P110" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="Q110" s="64" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="R110" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S110" s="31"/>
       <c r="V110" s="7"/>
@@ -37279,7 +37275,7 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="62" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E112" s="62" t="s">
         <v>597</v>
@@ -37289,7 +37285,7 @@
         <v>1858</v>
       </c>
       <c r="H112" s="62" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="I112" s="62" t="s">
         <v>1850</v>
@@ -37311,11 +37307,11 @@
         <v>1850</v>
       </c>
       <c r="P112" s="62" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="Q112" s="62"/>
       <c r="R112" s="62" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="S112" s="19"/>
       <c r="V112" s="7"/>
@@ -37376,43 +37372,43 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="64" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="E114" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F114" s="64"/>
       <c r="G114" s="64" t="s">
         <v>1859</v>
       </c>
       <c r="H114" s="64" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="I114" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="J114" s="64" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="K114" s="64"/>
       <c r="L114" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="M114" s="64" t="s">
         <v>1844</v>
       </c>
       <c r="N114" s="64" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="O114" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="P114" s="64" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="Q114" s="64"/>
       <c r="R114" s="64" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="S114" s="31"/>
       <c r="V114" s="7"/>
@@ -37449,10 +37445,10 @@
         <v>1850</v>
       </c>
       <c r="F116" s="62" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="G116" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="H116" s="62" t="s">
         <v>782</v>
@@ -37466,19 +37462,19 @@
       </c>
       <c r="L116" s="62"/>
       <c r="M116" s="62" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="N116" s="62" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="O116" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="P116" s="62" t="s">
         <v>597</v>
       </c>
       <c r="Q116" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="R116" s="62" t="s">
         <v>541</v>
@@ -37542,45 +37538,45 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="64" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="E118" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="F118" s="64" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="G118" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="H118" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="I118" s="64"/>
       <c r="J118" s="64" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="K118" s="64" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="L118" s="64"/>
       <c r="M118" s="64" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="N118" s="64" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="O118" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="P118" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="Q118" s="64" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="R118" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="S118" s="31"/>
       <c r="V118" s="7"/>
@@ -37616,20 +37612,20 @@
         <v>704</v>
       </c>
       <c r="G120" s="62" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H120" s="62" t="s">
         <v>597</v>
       </c>
       <c r="I120" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="J120" s="62" t="s">
         <v>796</v>
       </c>
       <c r="K120" s="62"/>
       <c r="L120" s="62" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="M120" s="62" t="s">
         <v>497</v>
@@ -37645,7 +37641,7 @@
         <v>683</v>
       </c>
       <c r="R120" s="62" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="S120" s="19"/>
       <c r="V120" s="7"/>
@@ -37707,42 +37703,42 @@
       <c r="B122" s="22"/>
       <c r="D122" s="64"/>
       <c r="E122" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F122" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="G122" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="H122" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="I122" s="64" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="J122" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="K122" s="64"/>
       <c r="L122" s="64" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="M122" s="64" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="N122" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O122" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="P122" s="64"/>
       <c r="Q122" s="64" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="R122" s="64" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
@@ -37778,11 +37774,11 @@
         <v>1850</v>
       </c>
       <c r="E124" s="62" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F124" s="62"/>
       <c r="G124" s="62" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="H124" s="62" t="s">
         <v>635</v>
@@ -37798,20 +37794,20 @@
         <v>683</v>
       </c>
       <c r="M124" s="62" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="N124" s="62" t="s">
         <v>1850</v>
       </c>
       <c r="O124" s="62" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="P124" s="62"/>
       <c r="Q124" s="62" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="R124" s="62" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S124" s="19"/>
       <c r="V124" s="7"/>
@@ -37875,40 +37871,40 @@
         <v>1852</v>
       </c>
       <c r="E126" s="64" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F126" s="64"/>
       <c r="G126" s="64" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="H126" s="64" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I126" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="J126" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="K126" s="64"/>
       <c r="L126" s="64" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="M126" s="64" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="N126" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="O126" s="64" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="P126" s="64"/>
       <c r="Q126" s="64" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="R126" s="64" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -37947,7 +37943,7 @@
         <v>1850</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="G128" s="62" t="s">
         <v>541</v>
@@ -37956,13 +37952,13 @@
         <v>778</v>
       </c>
       <c r="I128" s="62" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="J128" s="62" t="s">
         <v>1850</v>
       </c>
       <c r="K128" s="62" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="L128" s="62" t="s">
         <v>884</v>
@@ -38048,38 +38044,38 @@
         <v>1852</v>
       </c>
       <c r="F130" s="64" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G130" s="64" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H130" s="64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I130" s="64" t="s">
         <v>2100</v>
-      </c>
-      <c r="G130" s="64" t="s">
-        <v>1908</v>
-      </c>
-      <c r="H130" s="64" t="s">
-        <v>1879</v>
-      </c>
-      <c r="I130" s="64" t="s">
-        <v>2102</v>
       </c>
       <c r="J130" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="K130" s="64" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="L130" s="64" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="M130" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="N130" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="O130" s="64" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="P130" s="64"/>
       <c r="Q130" s="64" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="R130" s="64" t="s">
         <v>1847</v>
@@ -38117,7 +38113,7 @@
         <v>1850</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F132" s="62" t="s">
         <v>541</v>
@@ -38126,19 +38122,19 @@
         <v>778</v>
       </c>
       <c r="H132" s="62" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="I132" s="62" t="s">
         <v>1850</v>
       </c>
       <c r="J132" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="K132" s="62" t="s">
         <v>796</v>
       </c>
       <c r="L132" s="62" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="M132" s="62"/>
       <c r="N132" s="62"/>
@@ -38202,28 +38198,28 @@
         <v>1852</v>
       </c>
       <c r="E134" s="64" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F134" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="G134" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H134" s="64" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="I134" s="64" t="s">
         <v>1852</v>
       </c>
       <c r="J134" s="64" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="K134" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="L134" s="64" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="M134" s="64"/>
       <c r="N134" s="64"/>
@@ -38271,32 +38267,32 @@
       </c>
       <c r="H136" s="62"/>
       <c r="I136" s="62" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="J136" s="62" t="s">
         <v>796</v>
       </c>
       <c r="K136" s="62" t="s">
-        <v>1869</v>
+        <v>794</v>
       </c>
       <c r="L136" s="62" t="s">
         <v>840</v>
       </c>
       <c r="M136" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="N136" s="62" t="s">
         <v>601</v>
       </c>
       <c r="O136" s="62" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="P136" s="62"/>
       <c r="Q136" s="62" t="s">
         <v>484</v>
       </c>
       <c r="R136" s="62" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="S136" s="19"/>
       <c r="V136" s="7"/>
@@ -38327,7 +38323,7 @@
       <c r="J137" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="K137" s="63" t="s">
+      <c r="K137" s="76" t="s">
         <v>217</v>
       </c>
       <c r="L137" s="76" t="s">
@@ -38357,45 +38353,45 @@
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="22"/>
       <c r="D138" s="64" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E138" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F138" s="64" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="G138" s="64" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="H138" s="64"/>
       <c r="I138" s="64" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J138" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="K138" s="64" t="s">
-        <v>1870</v>
+        <v>2218</v>
       </c>
       <c r="L138" s="64" t="s">
         <v>1844</v>
       </c>
       <c r="M138" s="64" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="N138" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O138" s="64" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P138" s="64"/>
       <c r="Q138" s="64" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="R138" s="64" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S138" s="31"/>
       <c r="V138" s="7"/>
@@ -38430,20 +38426,20 @@
         <v>601</v>
       </c>
       <c r="F140" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="G140" s="62" t="s">
         <v>529</v>
       </c>
       <c r="H140" s="62" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="I140" s="62"/>
       <c r="J140" s="62" t="s">
         <v>484</v>
       </c>
       <c r="K140" s="62" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="L140" s="62" t="s">
         <v>661</v>
@@ -38452,7 +38448,7 @@
         <v>601</v>
       </c>
       <c r="N140" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="O140" s="62" t="s">
         <v>529</v>
@@ -38526,42 +38522,42 @@
         <v>1859</v>
       </c>
       <c r="E142" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F142" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="G142" s="64" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="H142" s="64" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="I142" s="64"/>
       <c r="J142" s="64" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="K142" s="64" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="L142" s="64" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="M142" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="N142" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="O142" s="64" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P142" s="64" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="Q142" s="64"/>
       <c r="R142" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="S142" s="31"/>
       <c r="V142" s="7"/>
@@ -38602,13 +38598,13 @@
         <v>754</v>
       </c>
       <c r="H144" s="62" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" s="62" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="J144" s="62" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="K144" s="62"/>
       <c r="L144" s="62" t="s">
@@ -38618,17 +38614,17 @@
         <v>880</v>
       </c>
       <c r="N144" s="62" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="O144" s="62" t="s">
         <v>784</v>
       </c>
       <c r="P144" s="62" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="Q144" s="62"/>
       <c r="R144" s="62" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="S144" s="19"/>
       <c r="V144" s="7"/>
@@ -38689,45 +38685,45 @@
     <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="64" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E146" s="64" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F146" s="64" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I146" s="64" t="s">
         <v>2109</v>
       </c>
-      <c r="E146" s="64" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F146" s="64" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G146" s="64" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H146" s="64" t="s">
-        <v>1997</v>
-      </c>
-      <c r="I146" s="64" t="s">
-        <v>2111</v>
-      </c>
       <c r="J146" s="64" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="K146" s="64"/>
       <c r="L146" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="M146" s="64" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="N146" s="64" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="O146" s="64" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="P146" s="64" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="Q146" s="64"/>
       <c r="R146" s="64" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="S146" s="31"/>
       <c r="V146" s="7"/>
@@ -38766,7 +38762,7 @@
         <v>597</v>
       </c>
       <c r="H148" s="62" t="s">
-        <v>2116</v>
+        <v>2219</v>
       </c>
       <c r="I148" s="62" t="s">
         <v>695</v>
@@ -38779,13 +38775,13 @@
       </c>
       <c r="L148" s="62"/>
       <c r="M148" s="62" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="N148" s="62" t="s">
         <v>796</v>
       </c>
       <c r="O148" s="62" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="P148" s="62" t="s">
         <v>567</v>
@@ -38814,7 +38810,7 @@
       <c r="G149" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H149" s="63" t="s">
+      <c r="H149" s="76" t="s">
         <v>1415</v>
       </c>
       <c r="I149" s="76" t="s">
@@ -38853,42 +38849,42 @@
     <row r="150" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="22"/>
       <c r="D150" s="64" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E150" s="64" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F150" s="64"/>
       <c r="G150" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="H150" s="64" t="s">
-        <v>2117</v>
+        <v>2221</v>
       </c>
       <c r="I150" s="64" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="J150" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="K150" s="64" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="L150" s="64"/>
       <c r="M150" s="64" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="N150" s="64" t="s">
         <v>1868</v>
       </c>
       <c r="O150" s="64" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="P150" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="Q150" s="64" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="R150" s="64"/>
       <c r="S150" s="31"/>
@@ -38921,19 +38917,19 @@
         <v>697</v>
       </c>
       <c r="E152" s="62" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="F152" s="62" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G152" s="62" t="s">
         <v>601</v>
       </c>
       <c r="H152" s="62" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="I152" s="62" t="s">
-        <v>2124</v>
+        <v>2220</v>
       </c>
       <c r="J152" s="62" t="s">
         <v>519</v>
@@ -38945,14 +38941,14 @@
         <v>704</v>
       </c>
       <c r="M152" s="62" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="N152" s="62" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O152" s="62"/>
       <c r="P152" s="62" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="Q152" s="62" t="s">
         <v>567</v>
@@ -38983,7 +38979,7 @@
       <c r="H153" s="63" t="s">
         <v>1579</v>
       </c>
-      <c r="I153" s="63" t="s">
+      <c r="I153" s="76" t="s">
         <v>1580</v>
       </c>
       <c r="J153" s="76" t="s">
@@ -39019,47 +39015,47 @@
     <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="64" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E154" s="64" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F154" s="64" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G154" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H154" s="64" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I154" s="64" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J154" s="64" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K154" s="64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L154" s="64" t="s">
+        <v>2215</v>
+      </c>
+      <c r="M154" s="64" t="s">
         <v>2121</v>
       </c>
-      <c r="F154" s="64" t="s">
-        <v>1960</v>
-      </c>
-      <c r="G154" s="64" t="s">
-        <v>1893</v>
-      </c>
-      <c r="H154" s="64" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I154" s="64" t="s">
-        <v>2125</v>
-      </c>
-      <c r="J154" s="64" t="s">
-        <v>2210</v>
-      </c>
-      <c r="K154" s="64" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L154" s="64" t="s">
-        <v>2221</v>
-      </c>
-      <c r="M154" s="64" t="s">
-        <v>2127</v>
-      </c>
       <c r="N154" s="64" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O154" s="64"/>
       <c r="P154" s="64" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="Q154" s="64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="R154" s="64" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="S154" s="31"/>
       <c r="V154" s="7"/>
@@ -39088,11 +39084,11 @@
     <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
       <c r="D156" s="62" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E156" s="62"/>
       <c r="F156" s="62" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="G156" s="62" t="s">
         <v>756</v>
@@ -39113,13 +39109,13 @@
         <v>782</v>
       </c>
       <c r="M156" s="62" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="N156" s="62" t="s">
         <v>597</v>
       </c>
       <c r="O156" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="P156" s="62" t="s">
         <v>760</v>
@@ -39187,45 +39183,45 @@
     <row r="158" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="22"/>
       <c r="D158" s="64" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E158" s="64"/>
       <c r="F158" s="64" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="G158" s="64" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="H158" s="64" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="I158" s="64" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="J158" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="K158" s="64" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="L158" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="M158" s="64" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="N158" s="64" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O158" s="64" t="s">
         <v>1929</v>
       </c>
-      <c r="O158" s="64" t="s">
-        <v>1931</v>
-      </c>
       <c r="P158" s="64" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="Q158" s="64"/>
       <c r="R158" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="S158" s="31"/>
       <c r="V158" s="7"/>
@@ -39257,19 +39253,19 @@
         <v>796</v>
       </c>
       <c r="E160" s="62" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="F160" s="62" t="s">
         <v>704</v>
       </c>
       <c r="G160" s="62" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="H160" s="62" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="I160" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="J160" s="62" t="s">
         <v>601</v>
@@ -39291,7 +39287,7 @@
         <v>782</v>
       </c>
       <c r="Q160" s="62" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="R160" s="62"/>
       <c r="S160" s="19"/>
@@ -39356,41 +39352,41 @@
         <v>1868</v>
       </c>
       <c r="E162" s="64" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F162" s="64" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="G162" s="64" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="H162" s="64" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="I162" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="J162" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K162" s="64"/>
       <c r="L162" s="64" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="M162" s="64" t="s">
         <v>1859</v>
       </c>
       <c r="N162" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="O162" s="64" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="P162" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="Q162" s="64" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="R162" s="64"/>
       <c r="S162" s="31"/>
@@ -39434,10 +39430,10 @@
         <v>529</v>
       </c>
       <c r="H164" s="62" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="I164" s="62" t="s">
-        <v>2116</v>
+        <v>2219</v>
       </c>
       <c r="J164" s="62" t="s">
         <v>1850</v>
@@ -39450,16 +39446,16 @@
         <v>778</v>
       </c>
       <c r="N164" s="62" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="O164" s="62" t="s">
         <v>597</v>
       </c>
       <c r="P164" s="62" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="Q164" s="62" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="R164" s="62" t="s">
         <v>601</v>
@@ -39487,7 +39483,7 @@
       <c r="H165" s="63" t="s">
         <v>1416</v>
       </c>
-      <c r="I165" s="63" t="s">
+      <c r="I165" s="76" t="s">
         <v>1415</v>
       </c>
       <c r="J165" s="63" t="s">
@@ -39523,22 +39519,22 @@
     <row r="166" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="22"/>
       <c r="D166" s="64" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E166" s="64" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F166" s="64" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G166" s="64" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H166" s="64" t="s">
+        <v>2130</v>
+      </c>
+      <c r="I166" s="64" t="s">
         <v>2221</v>
-      </c>
-      <c r="G166" s="64" t="s">
-        <v>1905</v>
-      </c>
-      <c r="H166" s="64" t="s">
-        <v>2136</v>
-      </c>
-      <c r="I166" s="64" t="s">
-        <v>2117</v>
       </c>
       <c r="J166" s="64" t="s">
         <v>1852</v>
@@ -39548,22 +39544,22 @@
       </c>
       <c r="L166" s="64"/>
       <c r="M166" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="N166" s="64" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="O166" s="64" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="P166" s="64" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="Q166" s="64" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="R166" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S166" s="31"/>
       <c r="V166" s="7"/>
@@ -39592,26 +39588,26 @@
       <c r="B168" s="17"/>
       <c r="C168" s="6"/>
       <c r="D168" s="62" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E168" s="62"/>
       <c r="F168" s="62" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="G168" s="62" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="H168" s="62" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="I168" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="J168" s="62" t="s">
         <v>601</v>
       </c>
       <c r="K168" s="62" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="L168" s="62"/>
       <c r="M168" s="62" t="s">
@@ -39624,7 +39620,7 @@
         <v>840</v>
       </c>
       <c r="P168" s="62" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="Q168" s="62" t="s">
         <v>601</v>
@@ -39689,45 +39685,45 @@
       <c r="B170" s="22"/>
       <c r="C170" s="6"/>
       <c r="D170" s="64" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E170" s="64"/>
       <c r="F170" s="64" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="G170" s="64" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="I170" s="64" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="J170" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K170" s="64" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="L170" s="64"/>
       <c r="M170" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="N170" s="64" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="O170" s="64" t="s">
         <v>1844</v>
       </c>
       <c r="P170" s="64" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="Q170" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="R170" s="64" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="171" spans="2:22">
@@ -39754,10 +39750,10 @@
       <c r="B172" s="17"/>
       <c r="C172" s="6"/>
       <c r="D172" s="62" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F172" s="62"/>
       <c r="G172" s="62" t="s">
@@ -39770,7 +39766,7 @@
         <v>601</v>
       </c>
       <c r="J172" s="62" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="K172" s="62" t="s">
         <v>908</v>
@@ -39782,14 +39778,14 @@
         <v>782</v>
       </c>
       <c r="N172" s="62" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="O172" s="62"/>
       <c r="P172" s="62" t="s">
         <v>778</v>
       </c>
       <c r="Q172" s="62" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="R172" s="62" t="s">
         <v>796</v>
@@ -39851,42 +39847,42 @@
       <c r="B174" s="22"/>
       <c r="C174" s="6"/>
       <c r="D174" s="64" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="E174" s="64" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F174" s="64"/>
       <c r="G174" s="64" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="H174" s="64" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="I174" s="64" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="J174" s="64" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="K174" s="64" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="L174" s="64" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="M174" s="64" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="N174" s="64" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="O174" s="64"/>
       <c r="P174" s="64" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="Q174" s="64" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="R174" s="64" t="s">
         <v>1868</v>
@@ -39915,7 +39911,7 @@
       <c r="B176" s="17"/>
       <c r="C176" s="6"/>
       <c r="D176" s="62" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="E176" s="62" t="s">
         <v>882</v>
@@ -39970,10 +39966,10 @@
       <c r="B178" s="22"/>
       <c r="C178" s="6"/>
       <c r="D178" s="64" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="E178" s="64" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F178" s="64"/>
       <c r="G178" s="64"/>
